--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_14_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_14_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1610112.266055712</v>
+        <v>1533728.044429056</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1279469.964264886</v>
+        <v>1279469.964264885</v>
       </c>
     </row>
     <row r="8">
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>109.08046255829</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>123.842487009866</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>123.842487009866</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>123.842487009866</v>
       </c>
       <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>123.842487009866</v>
-      </c>
-      <c r="U11" t="n">
-        <v>109.08046255829</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.53997679015154</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>120.2733826993983</v>
+        <v>109.0804625582899</v>
       </c>
       <c r="S12" t="n">
         <v>123.842487009866</v>
@@ -1505,7 +1505,7 @@
         <v>123.842487009866</v>
       </c>
       <c r="U12" t="n">
-        <v>83.10959007860615</v>
+        <v>123.842487009866</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.36419426370683</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>33.93881861653382</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>46.30301288024065</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>102.2978687930021</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1651,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>6.78259376528797</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="S14" t="n">
-        <v>123.842487009866</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>123.842487009866</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>123.842487009866</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>109.08046255829</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>109.0804625582899</v>
+        <v>109.08046255829</v>
       </c>
       <c r="S15" t="n">
-        <v>123.842487009866</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="T15" t="n">
-        <v>123.842487009866</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="U15" t="n">
-        <v>123.842487009866</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.36419426370694</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>33.93881861653379</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>46.30301288024074</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>123.842487009866</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>123.842487009866</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>123.842487009866</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>109.08046255829</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1888,25 +1888,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>6.78259376528797</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>102.2978687930021</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1931,22 +1931,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>123.842487009866</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>123.842487009866</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>123.842487009866</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>79.54048576813845</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.53997679015153</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>109.08046255829</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>34.12903113951162</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>12.17398174072911</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>46.30301288024074</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>123.8424870098655</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="F20" t="n">
-        <v>123.8424870098655</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>123.8424870098655</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>109.0804625582895</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>109.08046255829</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>109.0804625582901</v>
       </c>
       <c r="C21" t="n">
-        <v>123.8424870098655</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>123.8424870098655</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>123.8424870098655</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.0804625582895</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2213,13 +2213,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
     </row>
     <row r="22">
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>34.12903113951162</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>12.17398174072911</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>46.30301288024074</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>229.9351778390135</v>
+        <v>220.5989276261569</v>
       </c>
       <c r="F23" t="n">
         <v>229.9351778390135</v>
@@ -2335,7 +2335,7 @@
         <v>229.9351778390135</v>
       </c>
       <c r="H23" t="n">
-        <v>202.5269046406029</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>211.8631548534595</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>188.0127573810344</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>203.8424276152394</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2414,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>54.81793218156069</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>98.03068442008355</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.53997679015153</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>120.2733826993983</v>
       </c>
       <c r="S24" t="n">
-        <v>197.8152770701756</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>82.25352194120465</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>229.9351778390135</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>229.9351778390135</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>229.9351778390135</v>
       </c>
     </row>
     <row r="25">
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>46.30301288024068</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>46.30301288024074</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>229.9351778390135</v>
       </c>
       <c r="I26" t="n">
-        <v>213.6887770122727</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>6.78259376528797</v>
       </c>
       <c r="R26" t="n">
-        <v>145.1424132254017</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.84829847665411</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>229.9351778390135</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>195.7443108753149</v>
       </c>
     </row>
     <row r="27">
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>120.2733826993983</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>197.8152770701756</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>227.8803162774508</v>
       </c>
       <c r="U27" t="n">
-        <v>116.4282842716053</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>229.9351778390135</v>
       </c>
       <c r="X27" t="n">
         <v>229.9351778390135</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>204.5817662021657</v>
       </c>
     </row>
     <row r="28">
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>46.30301288024074</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,26 +2791,26 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>229.9351778390135</v>
       </c>
-      <c r="C29" t="n">
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>229.9351778390135</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>202.5269046406032</v>
+        <v>202.5269046406029</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>173.9843481253239</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>120.2733826993983</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.2043516548943</v>
+        <v>197.8152770701756</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>227.8803162774508</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>6.766489131990077</v>
       </c>
       <c r="W30" t="n">
         <v>229.9351778390135</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>229.9351778390135</v>
       </c>
       <c r="Y30" t="n">
-        <v>229.9351778390135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2964,58 +2964,58 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>46.30301288024074</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>202.5269046406029</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,46 +3046,46 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>229.9351778390135</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>6.78259376528797</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>214.8476876500893</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>229.9351778390135</v>
       </c>
       <c r="X32" t="n">
-        <v>210.8318010642391</v>
+        <v>229.9351778390135</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>98.03068442008355</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>120.2733826993983</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>82.25352194120465</v>
       </c>
       <c r="T33" t="n">
-        <v>227.8803162774508</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>106.5510817820821</v>
+        <v>229.9351778390135</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3225,13 +3225,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>5.60766530626978</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>34.12903113951162</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.566316434459327</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.30301288024074</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,64 +3274,64 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>109.0804625582901</v>
+      </c>
+      <c r="W35" t="n">
         <v>123.8424870098661</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>109.08046255829</v>
-      </c>
-      <c r="T35" t="n">
+      <c r="X35" t="n">
         <v>123.8424870098661</v>
-      </c>
-      <c r="U35" t="n">
-        <v>123.8424870098661</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>109.0804625582901</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>123.8424870098661</v>
+        <v>109.08046255829</v>
       </c>
       <c r="X36" t="n">
         <v>123.8424870098661</v>
       </c>
       <c r="Y36" t="n">
-        <v>123.8424870098661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3444,31 +3444,31 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>46.30301288024074</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>109.0804625582901</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="G38" t="n">
         <v>123.8424870098661</v>
@@ -3547,31 +3547,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>6.78259376528797</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>123.8424870098661</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>123.8424870098661</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>102.2978687930021</v>
       </c>
     </row>
     <row r="39">
@@ -3581,64 +3581,64 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
         <v>123.8424870098661</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>123.8424870098661</v>
-      </c>
-      <c r="E39" t="n">
-        <v>109.0804625582901</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>123.8424870098661</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>109.0804625582901</v>
       </c>
     </row>
     <row r="40">
@@ -3678,49 +3678,49 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>46.30301288024074</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,20 +3739,20 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>109.0804625582901</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>123.8424870098661</v>
       </c>
-      <c r="C41" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>123.8424870098661</v>
       </c>
-      <c r="D41" t="n">
-        <v>109.0804625582901</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>123.8424870098661</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,67 +3827,67 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>109.08046255829</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
         <v>123.8424870098661</v>
       </c>
-      <c r="F42" t="n">
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>123.8424870098661</v>
       </c>
-      <c r="G42" t="n">
+      <c r="Y42" t="n">
         <v>123.8424870098661</v>
-      </c>
-      <c r="H42" t="n">
-        <v>109.0804625582901</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3936,13 +3936,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>5.60766530626978</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.69534757397096</v>
+        <v>46.30301288024074</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>123.8424870098661</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>123.8424870098661</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>102.2978687930021</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>6.78259376528797</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>109.0804625582901</v>
       </c>
       <c r="X44" t="n">
-        <v>123.8424870098661</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4103,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>120.2733826993983</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>112.6495668687579</v>
       </c>
       <c r="U45" t="n">
-        <v>109.08046255829</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>123.8424870098661</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>123.8424870098661</v>
       </c>
       <c r="X45" t="n">
-        <v>123.8424870098661</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4158,10 +4158,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>6.756528957437159</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>33.93881861653379</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5.60766530626978</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>46.30301288024074</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.907398960789282</v>
+        <v>245.1831055952903</v>
       </c>
       <c r="C11" t="n">
-        <v>9.907398960789282</v>
+        <v>245.1831055952903</v>
       </c>
       <c r="D11" t="n">
-        <v>9.907398960789282</v>
+        <v>245.1831055952903</v>
       </c>
       <c r="E11" t="n">
-        <v>9.907398960789282</v>
+        <v>135.0008201828762</v>
       </c>
       <c r="F11" t="n">
-        <v>9.907398960789282</v>
+        <v>135.0008201828762</v>
       </c>
       <c r="G11" t="n">
         <v>9.907398960789282</v>
@@ -5047,16 +5047,16 @@
         <v>9.907398960789282</v>
       </c>
       <c r="L11" t="n">
-        <v>81.92929725807579</v>
+        <v>132.5114611005567</v>
       </c>
       <c r="M11" t="n">
-        <v>204.5333593978432</v>
+        <v>238.0599602864193</v>
       </c>
       <c r="N11" t="n">
-        <v>327.1374215376105</v>
+        <v>360.6640224261866</v>
       </c>
       <c r="O11" t="n">
-        <v>400.4370970826143</v>
+        <v>483.268084565954</v>
       </c>
       <c r="P11" t="n">
         <v>495.3699480394641</v>
@@ -5065,28 +5065,28 @@
         <v>495.3699480394641</v>
       </c>
       <c r="R11" t="n">
+        <v>495.3699480394641</v>
+      </c>
+      <c r="S11" t="n">
         <v>370.2765268173772</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
+        <v>370.2765268173772</v>
+      </c>
+      <c r="U11" t="n">
+        <v>370.2765268173772</v>
+      </c>
+      <c r="V11" t="n">
+        <v>370.2765268173772</v>
+      </c>
+      <c r="W11" t="n">
+        <v>370.2765268173772</v>
+      </c>
+      <c r="X11" t="n">
+        <v>370.2765268173772</v>
+      </c>
+      <c r="Y11" t="n">
         <v>245.1831055952903</v>
-      </c>
-      <c r="T11" t="n">
-        <v>120.0896843732034</v>
-      </c>
-      <c r="U11" t="n">
-        <v>9.907398960789282</v>
-      </c>
-      <c r="V11" t="n">
-        <v>9.907398960789282</v>
-      </c>
-      <c r="W11" t="n">
-        <v>9.907398960789282</v>
-      </c>
-      <c r="X11" t="n">
-        <v>9.907398960789282</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9.907398960789282</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39.74575935488175</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="C12" t="n">
-        <v>39.74575935488175</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="D12" t="n">
-        <v>39.74575935488175</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="E12" t="n">
-        <v>39.74575935488175</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="F12" t="n">
-        <v>39.74575935488175</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="G12" t="n">
-        <v>39.74575935488175</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="H12" t="n">
-        <v>39.74575935488175</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="I12" t="n">
-        <v>39.74575935488175</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="J12" t="n">
         <v>9.907398960789282</v>
@@ -5144,28 +5144,28 @@
         <v>495.3699480394641</v>
       </c>
       <c r="R12" t="n">
-        <v>373.8816826865365</v>
+        <v>385.18766262705</v>
       </c>
       <c r="S12" t="n">
-        <v>248.7882614644496</v>
+        <v>260.0942414049631</v>
       </c>
       <c r="T12" t="n">
-        <v>123.6948402423627</v>
+        <v>135.0008201828762</v>
       </c>
       <c r="U12" t="n">
-        <v>39.74575935488175</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="V12" t="n">
-        <v>39.74575935488175</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="W12" t="n">
-        <v>39.74575935488175</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="X12" t="n">
-        <v>39.74575935488175</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="Y12" t="n">
-        <v>39.74575935488175</v>
+        <v>9.907398960789282</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>56.67811904184045</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="C13" t="n">
-        <v>56.67811904184045</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="D13" t="n">
-        <v>56.67811904184045</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="E13" t="n">
-        <v>56.67811904184045</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="F13" t="n">
-        <v>56.67811904184045</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="G13" t="n">
-        <v>56.67811904184045</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="H13" t="n">
-        <v>56.67811904184045</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="I13" t="n">
-        <v>56.67811904184045</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="J13" t="n">
-        <v>44.18903392698506</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="K13" t="n">
         <v>9.907398960789282</v>
@@ -5226,25 +5226,25 @@
         <v>56.67811904184045</v>
       </c>
       <c r="S13" t="n">
-        <v>56.67811904184045</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="T13" t="n">
-        <v>56.67811904184045</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="U13" t="n">
-        <v>56.67811904184045</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="V13" t="n">
-        <v>56.67811904184045</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="W13" t="n">
-        <v>56.67811904184045</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="X13" t="n">
-        <v>56.67811904184045</v>
+        <v>9.907398960789282</v>
       </c>
       <c r="Y13" t="n">
-        <v>56.67811904184045</v>
+        <v>9.907398960789282</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.907398960789282</v>
+        <v>113.2385795597813</v>
       </c>
       <c r="C14" t="n">
-        <v>9.907398960789282</v>
+        <v>113.2385795597813</v>
       </c>
       <c r="D14" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="E14" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="F14" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="G14" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="H14" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="I14" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="J14" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="K14" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="L14" t="n">
-        <v>132.5114611005567</v>
+        <v>49.23335603418285</v>
       </c>
       <c r="M14" t="n">
-        <v>255.115523240324</v>
+        <v>171.8374181739503</v>
       </c>
       <c r="N14" t="n">
-        <v>360.6640224261865</v>
+        <v>294.4414803137178</v>
       </c>
       <c r="O14" t="n">
-        <v>483.2680845659539</v>
+        <v>417.0455424534852</v>
       </c>
       <c r="P14" t="n">
-        <v>495.3699480394641</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="Q14" t="n">
-        <v>495.3699480394641</v>
+        <v>488.5188432260423</v>
       </c>
       <c r="R14" t="n">
-        <v>495.3699480394641</v>
+        <v>363.4254220039553</v>
       </c>
       <c r="S14" t="n">
-        <v>370.2765268173772</v>
+        <v>363.4254220039553</v>
       </c>
       <c r="T14" t="n">
-        <v>245.1831055952903</v>
+        <v>363.4254220039553</v>
       </c>
       <c r="U14" t="n">
-        <v>120.0896843732034</v>
+        <v>363.4254220039553</v>
       </c>
       <c r="V14" t="n">
-        <v>9.907398960789282</v>
+        <v>363.4254220039553</v>
       </c>
       <c r="W14" t="n">
-        <v>9.907398960789282</v>
+        <v>238.3320007818683</v>
       </c>
       <c r="X14" t="n">
-        <v>9.907398960789282</v>
+        <v>113.2385795597813</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.907398960789282</v>
+        <v>113.2385795597813</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="C15" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="D15" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="E15" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="F15" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="G15" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="H15" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="I15" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="J15" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="K15" t="n">
-        <v>18.7530027566035</v>
+        <v>18.75300275660339</v>
       </c>
       <c r="L15" t="n">
-        <v>98.3937251147982</v>
+        <v>98.39372511479809</v>
       </c>
       <c r="M15" t="n">
         <v>219.6401113985567</v>
       </c>
       <c r="N15" t="n">
-        <v>342.244173538324</v>
+        <v>342.2441735383242</v>
       </c>
       <c r="O15" t="n">
-        <v>442.8774672382098</v>
+        <v>442.8774672382099</v>
       </c>
       <c r="P15" t="n">
-        <v>495.3699480394641</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="Q15" t="n">
-        <v>495.3699480394641</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="R15" t="n">
-        <v>385.18766262705</v>
+        <v>385.1876626270504</v>
       </c>
       <c r="S15" t="n">
-        <v>260.0942414049631</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="T15" t="n">
-        <v>135.0008201828762</v>
+        <v>135.0008201828763</v>
       </c>
       <c r="U15" t="n">
-        <v>9.907398960789282</v>
+        <v>135.0008201828763</v>
       </c>
       <c r="V15" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="W15" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="X15" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>56.67811904184053</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="C16" t="n">
-        <v>56.67811904184053</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="D16" t="n">
-        <v>56.67811904184053</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="E16" t="n">
-        <v>56.67811904184053</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="F16" t="n">
-        <v>56.67811904184053</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="G16" t="n">
-        <v>56.67811904184053</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="H16" t="n">
-        <v>56.67811904184053</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="I16" t="n">
-        <v>56.67811904184053</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="J16" t="n">
-        <v>44.18903392698503</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="K16" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="L16" t="n">
-        <v>17.31029062261676</v>
+        <v>17.31029062261677</v>
       </c>
       <c r="M16" t="n">
-        <v>31.73485924713394</v>
+        <v>31.73485924713395</v>
       </c>
       <c r="N16" t="n">
-        <v>56.67811904184053</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="O16" t="n">
-        <v>56.67811904184053</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="P16" t="n">
-        <v>56.67811904184053</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.67811904184053</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="R16" t="n">
-        <v>56.67811904184053</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="S16" t="n">
-        <v>56.67811904184053</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="T16" t="n">
-        <v>56.67811904184053</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="U16" t="n">
-        <v>56.67811904184053</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="V16" t="n">
-        <v>56.67811904184053</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="W16" t="n">
-        <v>56.67811904184053</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="X16" t="n">
-        <v>56.67811904184053</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="Y16" t="n">
-        <v>56.67811904184053</v>
+        <v>9.90739896078929</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>495.3699480394641</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="C17" t="n">
-        <v>495.3699480394641</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="D17" t="n">
-        <v>495.3699480394641</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="E17" t="n">
-        <v>370.2765268173772</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="F17" t="n">
-        <v>245.1831055952903</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="G17" t="n">
-        <v>120.0896843732034</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="H17" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="I17" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="J17" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="K17" t="n">
-        <v>81.53926335482056</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="L17" t="n">
-        <v>138.7837175249722</v>
+        <v>49.23335603418285</v>
       </c>
       <c r="M17" t="n">
-        <v>228.8579743318342</v>
+        <v>171.8374181739503</v>
       </c>
       <c r="N17" t="n">
-        <v>327.1374215376104</v>
+        <v>277.8330349428473</v>
       </c>
       <c r="O17" t="n">
-        <v>400.4370970826143</v>
+        <v>400.4370970826147</v>
       </c>
       <c r="P17" t="n">
-        <v>495.3699480394641</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="Q17" t="n">
-        <v>495.3699480394641</v>
+        <v>488.5188432260423</v>
       </c>
       <c r="R17" t="n">
-        <v>495.3699480394641</v>
+        <v>363.4254220039553</v>
       </c>
       <c r="S17" t="n">
-        <v>495.3699480394641</v>
+        <v>363.4254220039553</v>
       </c>
       <c r="T17" t="n">
-        <v>495.3699480394641</v>
+        <v>238.3320007818683</v>
       </c>
       <c r="U17" t="n">
-        <v>495.3699480394641</v>
+        <v>113.2385795597813</v>
       </c>
       <c r="V17" t="n">
-        <v>495.3699480394641</v>
+        <v>113.2385795597813</v>
       </c>
       <c r="W17" t="n">
-        <v>495.3699480394641</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="X17" t="n">
-        <v>495.3699480394641</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="Y17" t="n">
-        <v>495.3699480394641</v>
+        <v>9.90739896078929</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>495.3699480394641</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="C18" t="n">
-        <v>495.3699480394641</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="D18" t="n">
-        <v>495.3699480394641</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="E18" t="n">
-        <v>370.2765268173772</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="F18" t="n">
-        <v>245.1831055952903</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="G18" t="n">
-        <v>120.0896843732034</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="H18" t="n">
-        <v>120.0896843732034</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="I18" t="n">
-        <v>39.74575935488173</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="J18" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="K18" t="n">
-        <v>18.7530027566035</v>
+        <v>18.75300275660351</v>
       </c>
       <c r="L18" t="n">
-        <v>98.3937251147982</v>
+        <v>98.39372511479822</v>
       </c>
       <c r="M18" t="n">
         <v>219.6401113985567</v>
       </c>
       <c r="N18" t="n">
-        <v>342.244173538324</v>
+        <v>342.2441735383242</v>
       </c>
       <c r="O18" t="n">
-        <v>442.8774672382098</v>
+        <v>442.8774672382099</v>
       </c>
       <c r="P18" t="n">
-        <v>495.3699480394644</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="Q18" t="n">
-        <v>495.3699480394641</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="R18" t="n">
-        <v>495.3699480394641</v>
+        <v>385.1876626270504</v>
       </c>
       <c r="S18" t="n">
-        <v>495.3699480394641</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="T18" t="n">
-        <v>495.3699480394641</v>
+        <v>135.0008201828763</v>
       </c>
       <c r="U18" t="n">
-        <v>495.3699480394641</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="V18" t="n">
-        <v>495.3699480394641</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="W18" t="n">
-        <v>495.3699480394641</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="X18" t="n">
-        <v>495.3699480394641</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="Y18" t="n">
-        <v>495.3699480394641</v>
+        <v>9.90739896078929</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="C19" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="D19" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="E19" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="F19" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="G19" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="H19" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="I19" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="J19" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="K19" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="L19" t="n">
-        <v>17.31029062261676</v>
+        <v>17.31029062261677</v>
       </c>
       <c r="M19" t="n">
-        <v>31.73485924713394</v>
+        <v>31.73485924713395</v>
       </c>
       <c r="N19" t="n">
-        <v>56.67811904184053</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="O19" t="n">
-        <v>56.67811904184053</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="P19" t="n">
-        <v>22.20435021405101</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.907398960789282</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="R19" t="n">
-        <v>9.907398960789282</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="S19" t="n">
-        <v>9.907398960789282</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="T19" t="n">
-        <v>9.907398960789282</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="U19" t="n">
-        <v>9.907398960789282</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="V19" t="n">
-        <v>9.907398960789282</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="W19" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="X19" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.907398960789282</v>
+        <v>9.90739896078929</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>370.2765268173756</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="C20" t="n">
-        <v>370.2765268173756</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="D20" t="n">
-        <v>370.2765268173756</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="E20" t="n">
-        <v>370.2765268173756</v>
+        <v>135.0008201828763</v>
       </c>
       <c r="F20" t="n">
-        <v>245.1831055952892</v>
+        <v>135.0008201828763</v>
       </c>
       <c r="G20" t="n">
-        <v>120.0896843732029</v>
+        <v>135.0008201828763</v>
       </c>
       <c r="H20" t="n">
-        <v>9.907398960789239</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="I20" t="n">
-        <v>9.907398960789239</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="J20" t="n">
-        <v>9.907398960789239</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="K20" t="n">
-        <v>9.907398960789239</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="L20" t="n">
-        <v>132.5114611005561</v>
+        <v>49.23335603418285</v>
       </c>
       <c r="M20" t="n">
-        <v>255.1155232403229</v>
+        <v>171.8374181739503</v>
       </c>
       <c r="N20" t="n">
-        <v>377.7195853800898</v>
+        <v>294.4414803137178</v>
       </c>
       <c r="O20" t="n">
-        <v>451.0192609250936</v>
+        <v>417.0455424534852</v>
       </c>
       <c r="P20" t="n">
-        <v>495.369948039462</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="Q20" t="n">
-        <v>495.369948039462</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="R20" t="n">
-        <v>495.369948039462</v>
+        <v>385.1876626270504</v>
       </c>
       <c r="S20" t="n">
-        <v>495.369948039462</v>
+        <v>385.1876626270504</v>
       </c>
       <c r="T20" t="n">
-        <v>495.369948039462</v>
+        <v>385.1876626270504</v>
       </c>
       <c r="U20" t="n">
-        <v>495.369948039462</v>
+        <v>385.1876626270504</v>
       </c>
       <c r="V20" t="n">
-        <v>495.369948039462</v>
+        <v>385.1876626270504</v>
       </c>
       <c r="W20" t="n">
-        <v>495.369948039462</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="X20" t="n">
-        <v>495.369948039462</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="Y20" t="n">
-        <v>495.369948039462</v>
+        <v>260.0942414049633</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>495.369948039462</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="C21" t="n">
-        <v>370.2765268173756</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="D21" t="n">
-        <v>245.1831055952892</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="E21" t="n">
-        <v>120.0896843732029</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="F21" t="n">
-        <v>120.0896843732029</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="G21" t="n">
-        <v>120.0896843732029</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="H21" t="n">
-        <v>9.907398960789239</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="I21" t="n">
-        <v>9.907398960789239</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="J21" t="n">
-        <v>9.907398960789239</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="K21" t="n">
-        <v>18.75300275660346</v>
+        <v>18.75300275660339</v>
       </c>
       <c r="L21" t="n">
-        <v>98.39372511479817</v>
+        <v>98.39372511479803</v>
       </c>
       <c r="M21" t="n">
-        <v>219.6401113985567</v>
+        <v>219.6401113985565</v>
       </c>
       <c r="N21" t="n">
-        <v>342.2441735383235</v>
+        <v>342.2441735383242</v>
       </c>
       <c r="O21" t="n">
-        <v>442.8774672382092</v>
+        <v>442.8774672382099</v>
       </c>
       <c r="P21" t="n">
-        <v>495.3699480394638</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="Q21" t="n">
-        <v>495.369948039462</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="R21" t="n">
-        <v>495.369948039462</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="S21" t="n">
-        <v>495.369948039462</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="T21" t="n">
-        <v>495.369948039462</v>
+        <v>370.2765268173775</v>
       </c>
       <c r="U21" t="n">
-        <v>495.369948039462</v>
+        <v>370.2765268173775</v>
       </c>
       <c r="V21" t="n">
-        <v>495.369948039462</v>
+        <v>245.1831055952905</v>
       </c>
       <c r="W21" t="n">
-        <v>495.369948039462</v>
+        <v>245.1831055952905</v>
       </c>
       <c r="X21" t="n">
-        <v>495.369948039462</v>
+        <v>245.1831055952905</v>
       </c>
       <c r="Y21" t="n">
-        <v>495.369948039462</v>
+        <v>120.0896843732035</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.907398960789239</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="C22" t="n">
-        <v>9.907398960789239</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="D22" t="n">
-        <v>9.907398960789239</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="E22" t="n">
-        <v>9.907398960789239</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="F22" t="n">
-        <v>9.907398960789239</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="G22" t="n">
-        <v>9.907398960789239</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="H22" t="n">
-        <v>9.907398960789239</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="I22" t="n">
-        <v>9.907398960789239</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="J22" t="n">
-        <v>9.907398960789239</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="K22" t="n">
-        <v>9.907398960789239</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="L22" t="n">
-        <v>17.31029062261672</v>
+        <v>17.31029062261677</v>
       </c>
       <c r="M22" t="n">
-        <v>31.7348592471339</v>
+        <v>31.73485924713395</v>
       </c>
       <c r="N22" t="n">
-        <v>56.67811904184049</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="O22" t="n">
-        <v>56.67811904184049</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="P22" t="n">
-        <v>22.20435021405097</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.20435021405097</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="R22" t="n">
-        <v>22.20435021405097</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="S22" t="n">
-        <v>22.20435021405097</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="T22" t="n">
-        <v>22.20435021405097</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="U22" t="n">
-        <v>22.20435021405097</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="V22" t="n">
-        <v>22.20435021405097</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="W22" t="n">
-        <v>9.907398960789239</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="X22" t="n">
-        <v>9.907398960789239</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.907398960789239</v>
+        <v>9.90739896078929</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>919.7407113560539</v>
+        <v>705.7375246353877</v>
       </c>
       <c r="C23" t="n">
-        <v>919.7407113560539</v>
+        <v>705.7375246353877</v>
       </c>
       <c r="D23" t="n">
-        <v>919.7407113560539</v>
+        <v>705.7375246353877</v>
       </c>
       <c r="E23" t="n">
-        <v>687.482955963111</v>
+        <v>482.910325013007</v>
       </c>
       <c r="F23" t="n">
-        <v>455.225200570168</v>
+        <v>250.652569620064</v>
       </c>
       <c r="G23" t="n">
-        <v>222.9674451772251</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="H23" t="n">
         <v>18.39481422712108</v>
@@ -5992,16 +5992,16 @@
         <v>18.39481422712108</v>
       </c>
       <c r="K23" t="n">
-        <v>90.02667862115246</v>
+        <v>90.02667862115236</v>
       </c>
       <c r="L23" t="n">
-        <v>236.858632319832</v>
+        <v>236.8586323198316</v>
       </c>
       <c r="M23" t="n">
         <v>442.6376726477487</v>
       </c>
       <c r="N23" t="n">
-        <v>653.4902181971695</v>
+        <v>653.4902181971696</v>
       </c>
       <c r="O23" t="n">
         <v>824.8078603992042</v>
@@ -6016,25 +6016,25 @@
         <v>919.7407113560539</v>
       </c>
       <c r="S23" t="n">
-        <v>919.7407113560539</v>
+        <v>705.7375246353877</v>
       </c>
       <c r="T23" t="n">
-        <v>919.7407113560539</v>
+        <v>705.7375246353877</v>
       </c>
       <c r="U23" t="n">
-        <v>919.7407113560539</v>
+        <v>705.7375246353877</v>
       </c>
       <c r="V23" t="n">
-        <v>919.7407113560539</v>
+        <v>705.7375246353877</v>
       </c>
       <c r="W23" t="n">
-        <v>919.7407113560539</v>
+        <v>705.7375246353877</v>
       </c>
       <c r="X23" t="n">
-        <v>919.7407113560539</v>
+        <v>705.7375246353877</v>
       </c>
       <c r="Y23" t="n">
-        <v>919.7407113560539</v>
+        <v>705.7375246353877</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>408.5271586786718</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="C24" t="n">
-        <v>202.6257166430764</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="D24" t="n">
-        <v>202.6257166430764</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="E24" t="n">
-        <v>202.6257166430764</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="F24" t="n">
-        <v>202.6257166430764</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="G24" t="n">
-        <v>202.6257166430764</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="H24" t="n">
-        <v>147.2540679748333</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="I24" t="n">
-        <v>48.23317462121354</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="J24" t="n">
         <v>18.39481422712108</v>
       </c>
       <c r="K24" t="n">
-        <v>27.24041802293529</v>
+        <v>43.12831725716498</v>
       </c>
       <c r="L24" t="n">
-        <v>202.3354452622404</v>
+        <v>218.2233444964701</v>
       </c>
       <c r="M24" t="n">
         <v>339.4697307802286</v>
@@ -6095,25 +6095,25 @@
         <v>798.2524460031264</v>
       </c>
       <c r="S24" t="n">
-        <v>598.4390348211308</v>
+        <v>798.2524460031264</v>
       </c>
       <c r="T24" t="n">
-        <v>598.4390348211308</v>
+        <v>798.2524460031264</v>
       </c>
       <c r="U24" t="n">
-        <v>598.4390348211308</v>
+        <v>715.1680804059499</v>
       </c>
       <c r="V24" t="n">
-        <v>598.4390348211308</v>
+        <v>482.910325013007</v>
       </c>
       <c r="W24" t="n">
-        <v>598.4390348211308</v>
+        <v>250.652569620064</v>
       </c>
       <c r="X24" t="n">
-        <v>598.4390348211308</v>
+        <v>250.652569620064</v>
       </c>
       <c r="Y24" t="n">
-        <v>598.4390348211308</v>
+        <v>18.39481422712108</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>919.7407113560539</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="C25" t="n">
-        <v>919.7407113560539</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="D25" t="n">
-        <v>919.7407113560539</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="E25" t="n">
-        <v>919.7407113560539</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="F25" t="n">
-        <v>919.7407113560539</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="G25" t="n">
-        <v>919.7407113560539</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="H25" t="n">
-        <v>919.7407113560539</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="I25" t="n">
-        <v>872.9699912750027</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="J25" t="n">
-        <v>872.9699912750027</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="K25" t="n">
-        <v>872.9699912750027</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="L25" t="n">
-        <v>880.3728829368301</v>
+        <v>25.79770588894855</v>
       </c>
       <c r="M25" t="n">
-        <v>894.7974515613473</v>
+        <v>40.22227451346573</v>
       </c>
       <c r="N25" t="n">
-        <v>919.7407113560539</v>
+        <v>65.16553430817233</v>
       </c>
       <c r="O25" t="n">
-        <v>919.7407113560539</v>
+        <v>65.16553430817233</v>
       </c>
       <c r="P25" t="n">
-        <v>919.7407113560539</v>
+        <v>65.16553430817233</v>
       </c>
       <c r="Q25" t="n">
-        <v>919.7407113560539</v>
+        <v>65.16553430817233</v>
       </c>
       <c r="R25" t="n">
-        <v>919.7407113560539</v>
+        <v>65.16553430817233</v>
       </c>
       <c r="S25" t="n">
-        <v>919.7407113560539</v>
+        <v>65.16553430817233</v>
       </c>
       <c r="T25" t="n">
-        <v>919.7407113560539</v>
+        <v>65.16553430817233</v>
       </c>
       <c r="U25" t="n">
-        <v>919.7407113560539</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="V25" t="n">
-        <v>919.7407113560539</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="W25" t="n">
-        <v>919.7407113560539</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="X25" t="n">
-        <v>919.7407113560539</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="Y25" t="n">
-        <v>919.7407113560539</v>
+        <v>18.39481422712108</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>698.7575745203532</v>
+        <v>482.910325013007</v>
       </c>
       <c r="C26" t="n">
-        <v>698.7575745203532</v>
+        <v>482.910325013007</v>
       </c>
       <c r="D26" t="n">
-        <v>698.7575745203532</v>
+        <v>482.910325013007</v>
       </c>
       <c r="E26" t="n">
-        <v>698.7575745203532</v>
+        <v>482.910325013007</v>
       </c>
       <c r="F26" t="n">
-        <v>698.7575745203532</v>
+        <v>482.910325013007</v>
       </c>
       <c r="G26" t="n">
-        <v>466.4998191274102</v>
+        <v>250.652569620064</v>
       </c>
       <c r="H26" t="n">
-        <v>234.2420637344673</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="I26" t="n">
         <v>18.39481422712108</v>
@@ -6229,19 +6229,19 @@
         <v>18.39481422712108</v>
       </c>
       <c r="K26" t="n">
-        <v>90.02667862115236</v>
+        <v>90.02667862115209</v>
       </c>
       <c r="L26" t="n">
-        <v>236.8586323198318</v>
+        <v>236.8586323198316</v>
       </c>
       <c r="M26" t="n">
-        <v>442.6376726477489</v>
+        <v>442.6376726477487</v>
       </c>
       <c r="N26" t="n">
-        <v>653.4902181971698</v>
+        <v>653.4902181971695</v>
       </c>
       <c r="O26" t="n">
-        <v>824.8078603992044</v>
+        <v>824.8078603992042</v>
       </c>
       <c r="P26" t="n">
         <v>919.7407113560539</v>
@@ -6250,28 +6250,28 @@
         <v>912.8896065426317</v>
       </c>
       <c r="R26" t="n">
-        <v>766.2811083351553</v>
+        <v>912.8896065426317</v>
       </c>
       <c r="S26" t="n">
-        <v>698.7575745203532</v>
+        <v>912.8896065426317</v>
       </c>
       <c r="T26" t="n">
-        <v>698.7575745203532</v>
+        <v>912.8896065426317</v>
       </c>
       <c r="U26" t="n">
-        <v>698.7575745203532</v>
+        <v>680.6318511496887</v>
       </c>
       <c r="V26" t="n">
-        <v>698.7575745203532</v>
+        <v>680.6318511496887</v>
       </c>
       <c r="W26" t="n">
-        <v>698.7575745203532</v>
+        <v>680.6318511496887</v>
       </c>
       <c r="X26" t="n">
-        <v>698.7575745203532</v>
+        <v>680.6318511496887</v>
       </c>
       <c r="Y26" t="n">
-        <v>698.7575745203532</v>
+        <v>482.910325013007</v>
       </c>
     </row>
     <row r="27">
@@ -6311,16 +6311,16 @@
         <v>95.31377002997303</v>
       </c>
       <c r="L27" t="n">
-        <v>193.9416702421408</v>
+        <v>270.4087972692781</v>
       </c>
       <c r="M27" t="n">
-        <v>421.5774963027642</v>
+        <v>421.4420474281484</v>
       </c>
       <c r="N27" t="n">
-        <v>567.1055568408519</v>
+        <v>649.0778734887717</v>
       </c>
       <c r="O27" t="n">
-        <v>769.1190115225679</v>
+        <v>851.0913281704877</v>
       </c>
       <c r="P27" t="n">
         <v>903.5838089717424</v>
@@ -6329,25 +6329,25 @@
         <v>919.7407113560539</v>
       </c>
       <c r="R27" t="n">
-        <v>798.2524460031264</v>
+        <v>919.7407113560539</v>
       </c>
       <c r="S27" t="n">
-        <v>598.4390348211308</v>
+        <v>919.7407113560539</v>
       </c>
       <c r="T27" t="n">
-        <v>368.2568971671401</v>
+        <v>689.5585737020632</v>
       </c>
       <c r="U27" t="n">
-        <v>250.652569620064</v>
+        <v>689.5585737020632</v>
       </c>
       <c r="V27" t="n">
-        <v>250.652569620064</v>
+        <v>689.5585737020632</v>
       </c>
       <c r="W27" t="n">
-        <v>250.652569620064</v>
+        <v>457.3008183091202</v>
       </c>
       <c r="X27" t="n">
-        <v>18.39481422712108</v>
+        <v>225.0430629161773</v>
       </c>
       <c r="Y27" t="n">
         <v>18.39481422712108</v>
@@ -6420,7 +6420,7 @@
         <v>65.16553430817233</v>
       </c>
       <c r="V28" t="n">
-        <v>18.39481422712108</v>
+        <v>65.16553430817233</v>
       </c>
       <c r="W28" t="n">
         <v>18.39481422712108</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>482.910325013007</v>
+      </c>
+      <c r="C29" t="n">
+        <v>482.910325013007</v>
+      </c>
+      <c r="D29" t="n">
+        <v>482.910325013007</v>
+      </c>
+      <c r="E29" t="n">
+        <v>482.910325013007</v>
+      </c>
+      <c r="F29" t="n">
         <v>250.652569620064</v>
       </c>
-      <c r="C29" t="n">
-        <v>18.39481422712108</v>
-      </c>
-      <c r="D29" t="n">
-        <v>18.39481422712108</v>
-      </c>
-      <c r="E29" t="n">
-        <v>18.39481422712108</v>
-      </c>
-      <c r="F29" t="n">
-        <v>18.39481422712108</v>
-      </c>
       <c r="G29" t="n">
-        <v>18.39481422712108</v>
+        <v>250.652569620064</v>
       </c>
       <c r="H29" t="n">
         <v>18.39481422712108</v>
@@ -6466,34 +6466,34 @@
         <v>18.39481422712108</v>
       </c>
       <c r="K29" t="n">
-        <v>90.02667862115236</v>
+        <v>90.02667862115214</v>
       </c>
       <c r="L29" t="n">
-        <v>236.8586323198318</v>
+        <v>236.8586323198316</v>
       </c>
       <c r="M29" t="n">
-        <v>442.6376726477489</v>
+        <v>442.6376726477487</v>
       </c>
       <c r="N29" t="n">
-        <v>653.4902181971698</v>
+        <v>653.4902181971696</v>
       </c>
       <c r="O29" t="n">
-        <v>824.8078603992044</v>
+        <v>824.8078603992042</v>
       </c>
       <c r="P29" t="n">
-        <v>919.7407113560541</v>
+        <v>919.7407113560539</v>
       </c>
       <c r="Q29" t="n">
-        <v>919.7407113560541</v>
+        <v>919.7407113560539</v>
       </c>
       <c r="R29" t="n">
-        <v>919.7407113560541</v>
+        <v>919.7407113560539</v>
       </c>
       <c r="S29" t="n">
-        <v>919.7407113560541</v>
+        <v>919.7407113560539</v>
       </c>
       <c r="T29" t="n">
-        <v>919.7407113560541</v>
+        <v>919.7407113560539</v>
       </c>
       <c r="U29" t="n">
         <v>715.1680804059499</v>
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>194.1365800102766</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="C30" t="n">
-        <v>194.1365800102766</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="D30" t="n">
-        <v>194.1365800102766</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="E30" t="n">
-        <v>194.1365800102766</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="F30" t="n">
         <v>18.39481422712108</v>
@@ -6545,19 +6545,19 @@
         <v>18.39481422712108</v>
       </c>
       <c r="K30" t="n">
-        <v>27.24041802293529</v>
+        <v>95.31377002997303</v>
       </c>
       <c r="L30" t="n">
-        <v>202.3354452622404</v>
+        <v>270.4087972692781</v>
       </c>
       <c r="M30" t="n">
-        <v>339.4697307802286</v>
+        <v>498.0446233299015</v>
       </c>
       <c r="N30" t="n">
-        <v>567.1055568408519</v>
+        <v>725.6804493905248</v>
       </c>
       <c r="O30" t="n">
-        <v>769.1190115225679</v>
+        <v>826.3137430904105</v>
       </c>
       <c r="P30" t="n">
         <v>903.5838089717424</v>
@@ -6566,28 +6566,28 @@
         <v>919.7407113560539</v>
       </c>
       <c r="R30" t="n">
-        <v>798.2524460031264</v>
+        <v>919.7407113560539</v>
       </c>
       <c r="S30" t="n">
-        <v>658.6520907961624</v>
+        <v>719.9273001740584</v>
       </c>
       <c r="T30" t="n">
-        <v>658.6520907961624</v>
+        <v>489.7451625200677</v>
       </c>
       <c r="U30" t="n">
-        <v>658.6520907961624</v>
+        <v>489.7451625200677</v>
       </c>
       <c r="V30" t="n">
-        <v>658.6520907961624</v>
+        <v>482.910325013007</v>
       </c>
       <c r="W30" t="n">
-        <v>426.3943354032195</v>
+        <v>250.652569620064</v>
       </c>
       <c r="X30" t="n">
-        <v>426.3943354032195</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="Y30" t="n">
-        <v>194.1365800102766</v>
+        <v>18.39481422712108</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.16553430817233</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="C31" t="n">
-        <v>65.16553430817233</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="D31" t="n">
-        <v>65.16553430817233</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="E31" t="n">
-        <v>65.16553430817233</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="F31" t="n">
-        <v>65.16553430817233</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="G31" t="n">
         <v>18.39481422712108</v>
@@ -6663,10 +6663,10 @@
         <v>65.16553430817233</v>
       </c>
       <c r="X31" t="n">
-        <v>65.16553430817233</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="Y31" t="n">
-        <v>65.16553430817233</v>
+        <v>18.39481422712108</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>250.652569620064</v>
+        <v>222.9674451772251</v>
       </c>
       <c r="C32" t="n">
-        <v>250.652569620064</v>
+        <v>222.9674451772251</v>
       </c>
       <c r="D32" t="n">
-        <v>250.652569620064</v>
+        <v>222.9674451772251</v>
       </c>
       <c r="E32" t="n">
-        <v>250.652569620064</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="F32" t="n">
-        <v>250.652569620064</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="G32" t="n">
-        <v>250.652569620064</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="H32" t="n">
         <v>18.39481422712108</v>
@@ -6703,49 +6703,49 @@
         <v>18.39481422712108</v>
       </c>
       <c r="K32" t="n">
-        <v>90.02667862115246</v>
+        <v>90.02667862115236</v>
       </c>
       <c r="L32" t="n">
-        <v>236.858632319832</v>
+        <v>236.8586323198318</v>
       </c>
       <c r="M32" t="n">
-        <v>442.6376726477487</v>
+        <v>442.6376726477489</v>
       </c>
       <c r="N32" t="n">
-        <v>653.4902181971695</v>
+        <v>653.4902181971698</v>
       </c>
       <c r="O32" t="n">
-        <v>824.8078603992042</v>
+        <v>824.8078603992044</v>
       </c>
       <c r="P32" t="n">
+        <v>919.7407113560541</v>
+      </c>
+      <c r="Q32" t="n">
         <v>919.7407113560539</v>
       </c>
-      <c r="Q32" t="n">
-        <v>912.8896065426317</v>
-      </c>
       <c r="R32" t="n">
-        <v>912.8896065426317</v>
+        <v>919.7407113560539</v>
       </c>
       <c r="S32" t="n">
-        <v>912.8896065426317</v>
+        <v>919.7407113560539</v>
       </c>
       <c r="T32" t="n">
-        <v>695.8717402294101</v>
+        <v>919.7407113560539</v>
       </c>
       <c r="U32" t="n">
-        <v>695.8717402294101</v>
+        <v>687.482955963111</v>
       </c>
       <c r="V32" t="n">
-        <v>695.8717402294101</v>
+        <v>687.482955963111</v>
       </c>
       <c r="W32" t="n">
-        <v>463.6139848364671</v>
+        <v>455.225200570168</v>
       </c>
       <c r="X32" t="n">
-        <v>250.652569620064</v>
+        <v>222.9674451772251</v>
       </c>
       <c r="Y32" t="n">
-        <v>250.652569620064</v>
+        <v>222.9674451772251</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>117.4157075807408</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="C33" t="n">
-        <v>117.4157075807408</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="D33" t="n">
-        <v>117.4157075807408</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="E33" t="n">
-        <v>117.4157075807408</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="F33" t="n">
-        <v>117.4157075807408</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="G33" t="n">
-        <v>117.4157075807408</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="H33" t="n">
-        <v>117.4157075807408</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="I33" t="n">
         <v>18.39481422712108</v>
@@ -6785,46 +6785,46 @@
         <v>27.24041802293529</v>
       </c>
       <c r="L33" t="n">
-        <v>202.3354452622404</v>
+        <v>111.8339047196052</v>
       </c>
       <c r="M33" t="n">
-        <v>429.9712713228637</v>
+        <v>339.4697307802286</v>
       </c>
       <c r="N33" t="n">
-        <v>583.2624592251634</v>
+        <v>567.1055568408519</v>
       </c>
       <c r="O33" t="n">
-        <v>785.2759139068794</v>
+        <v>769.1190115225679</v>
       </c>
       <c r="P33" t="n">
-        <v>919.7407113560539</v>
+        <v>903.5838089717424</v>
       </c>
       <c r="Q33" t="n">
         <v>919.7407113560539</v>
       </c>
       <c r="R33" t="n">
-        <v>919.7407113560539</v>
+        <v>798.2524460031264</v>
       </c>
       <c r="S33" t="n">
-        <v>919.7407113560539</v>
+        <v>715.1680804059499</v>
       </c>
       <c r="T33" t="n">
-        <v>689.5585737020632</v>
+        <v>715.1680804059499</v>
       </c>
       <c r="U33" t="n">
-        <v>581.9312183666267</v>
+        <v>482.910325013007</v>
       </c>
       <c r="V33" t="n">
-        <v>581.9312183666267</v>
+        <v>482.910325013007</v>
       </c>
       <c r="W33" t="n">
-        <v>349.6734629736837</v>
+        <v>250.652569620064</v>
       </c>
       <c r="X33" t="n">
-        <v>117.4157075807408</v>
+        <v>18.39481422712108</v>
       </c>
       <c r="Y33" t="n">
-        <v>117.4157075807408</v>
+        <v>18.39481422712108</v>
       </c>
     </row>
     <row r="34">
@@ -6873,28 +6873,28 @@
         <v>65.16553430817233</v>
       </c>
       <c r="O34" t="n">
-        <v>59.50122591800083</v>
+        <v>65.16553430817233</v>
       </c>
       <c r="P34" t="n">
-        <v>25.02745709021131</v>
+        <v>65.16553430817233</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.39481422712108</v>
+        <v>65.16553430817233</v>
       </c>
       <c r="R34" t="n">
-        <v>18.39481422712108</v>
+        <v>65.16553430817233</v>
       </c>
       <c r="S34" t="n">
-        <v>18.39481422712108</v>
+        <v>65.16553430817233</v>
       </c>
       <c r="T34" t="n">
-        <v>18.39481422712108</v>
+        <v>65.16553430817233</v>
       </c>
       <c r="U34" t="n">
-        <v>18.39481422712108</v>
+        <v>65.16553430817233</v>
       </c>
       <c r="V34" t="n">
-        <v>18.39481422712108</v>
+        <v>65.16553430817233</v>
       </c>
       <c r="W34" t="n">
         <v>18.39481422712108</v>
@@ -6922,61 +6922,61 @@
         <v>135.0008201828763</v>
       </c>
       <c r="E35" t="n">
-        <v>135.0008201828763</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="F35" t="n">
-        <v>135.0008201828763</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="G35" t="n">
-        <v>9.90739896078929</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="H35" t="n">
-        <v>9.90739896078929</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="I35" t="n">
-        <v>9.90739896078929</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="J35" t="n">
-        <v>9.90739896078929</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="K35" t="n">
-        <v>81.53926335482058</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="L35" t="n">
-        <v>204.1433254945881</v>
+        <v>132.5114611005568</v>
       </c>
       <c r="M35" t="n">
-        <v>294.21758230145</v>
+        <v>222.5857179074187</v>
       </c>
       <c r="N35" t="n">
-        <v>409.9684090209505</v>
+        <v>320.865165113195</v>
       </c>
       <c r="O35" t="n">
-        <v>483.2680845659544</v>
+        <v>443.4692272529625</v>
       </c>
       <c r="P35" t="n">
-        <v>495.3699480394645</v>
+        <v>495.3699480394646</v>
       </c>
       <c r="Q35" t="n">
-        <v>495.3699480394645</v>
+        <v>495.3699480394646</v>
       </c>
       <c r="R35" t="n">
-        <v>495.3699480394645</v>
+        <v>495.3699480394646</v>
       </c>
       <c r="S35" t="n">
+        <v>495.3699480394646</v>
+      </c>
+      <c r="T35" t="n">
+        <v>495.3699480394646</v>
+      </c>
+      <c r="U35" t="n">
+        <v>495.3699480394646</v>
+      </c>
+      <c r="V35" t="n">
         <v>385.1876626270504</v>
       </c>
-      <c r="T35" t="n">
+      <c r="W35" t="n">
         <v>260.0942414049633</v>
-      </c>
-      <c r="U35" t="n">
-        <v>135.0008201828763</v>
-      </c>
-      <c r="V35" t="n">
-        <v>135.0008201828763</v>
-      </c>
-      <c r="W35" t="n">
-        <v>135.0008201828763</v>
       </c>
       <c r="X35" t="n">
         <v>135.0008201828763</v>
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>120.0896843732035</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="C36" t="n">
-        <v>120.0896843732035</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="D36" t="n">
-        <v>120.0896843732035</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="E36" t="n">
-        <v>120.0896843732035</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="F36" t="n">
-        <v>9.90739896078929</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="G36" t="n">
-        <v>9.90739896078929</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="H36" t="n">
-        <v>9.90739896078929</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="I36" t="n">
-        <v>9.90739896078929</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="J36" t="n">
-        <v>9.90739896078929</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="K36" t="n">
-        <v>18.75300275660339</v>
+        <v>18.75300275660351</v>
       </c>
       <c r="L36" t="n">
-        <v>98.39372511479803</v>
+        <v>98.39372511479822</v>
       </c>
       <c r="M36" t="n">
-        <v>219.6401113985565</v>
+        <v>219.6401113985567</v>
       </c>
       <c r="N36" t="n">
         <v>342.2441735383242</v>
@@ -7034,34 +7034,34 @@
         <v>442.8774672382099</v>
       </c>
       <c r="P36" t="n">
-        <v>495.3699480394645</v>
+        <v>495.3699480394646</v>
       </c>
       <c r="Q36" t="n">
-        <v>495.3699480394645</v>
+        <v>495.3699480394646</v>
       </c>
       <c r="R36" t="n">
-        <v>495.3699480394645</v>
+        <v>495.3699480394646</v>
       </c>
       <c r="S36" t="n">
-        <v>495.3699480394645</v>
+        <v>370.2765268173775</v>
       </c>
       <c r="T36" t="n">
-        <v>495.3699480394645</v>
+        <v>245.1831055952905</v>
       </c>
       <c r="U36" t="n">
-        <v>495.3699480394645</v>
+        <v>245.1831055952905</v>
       </c>
       <c r="V36" t="n">
-        <v>495.3699480394645</v>
+        <v>245.1831055952905</v>
       </c>
       <c r="W36" t="n">
-        <v>370.2765268173775</v>
+        <v>135.0008201828763</v>
       </c>
       <c r="X36" t="n">
-        <v>245.1831055952905</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="Y36" t="n">
-        <v>120.0896843732035</v>
+        <v>9.907398960789292</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.67811904184054</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="C37" t="n">
-        <v>56.67811904184054</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="D37" t="n">
-        <v>56.67811904184054</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="E37" t="n">
-        <v>56.67811904184054</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="F37" t="n">
-        <v>56.67811904184054</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="G37" t="n">
-        <v>56.67811904184054</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="H37" t="n">
-        <v>56.67811904184054</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="I37" t="n">
-        <v>9.90739896078929</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="J37" t="n">
-        <v>9.90739896078929</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="K37" t="n">
-        <v>9.90739896078929</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="L37" t="n">
         <v>17.31029062261677</v>
@@ -7107,40 +7107,40 @@
         <v>31.73485924713395</v>
       </c>
       <c r="N37" t="n">
-        <v>56.67811904184054</v>
+        <v>56.67811904184055</v>
       </c>
       <c r="O37" t="n">
-        <v>56.67811904184054</v>
+        <v>56.67811904184055</v>
       </c>
       <c r="P37" t="n">
-        <v>56.67811904184054</v>
+        <v>56.67811904184055</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.67811904184054</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="R37" t="n">
-        <v>56.67811904184054</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="S37" t="n">
-        <v>56.67811904184054</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="T37" t="n">
-        <v>56.67811904184054</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="U37" t="n">
-        <v>56.67811904184054</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="V37" t="n">
-        <v>56.67811904184054</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="W37" t="n">
-        <v>56.67811904184054</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="X37" t="n">
-        <v>56.67811904184054</v>
+        <v>9.907398960789292</v>
       </c>
       <c r="Y37" t="n">
-        <v>56.67811904184054</v>
+        <v>9.907398960789292</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>135.0008201828763</v>
+        <v>370.2765268173775</v>
       </c>
       <c r="C38" t="n">
-        <v>135.0008201828763</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="D38" t="n">
-        <v>135.0008201828763</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="E38" t="n">
-        <v>135.0008201828763</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="F38" t="n">
         <v>135.0008201828763</v>
@@ -7177,49 +7177,49 @@
         <v>9.90739896078929</v>
       </c>
       <c r="K38" t="n">
-        <v>9.90739896078929</v>
+        <v>74.68602793455365</v>
       </c>
       <c r="L38" t="n">
-        <v>89.4793309302091</v>
+        <v>197.2900900743211</v>
       </c>
       <c r="M38" t="n">
-        <v>179.553587737071</v>
+        <v>287.3643468811831</v>
       </c>
       <c r="N38" t="n">
-        <v>277.8330349428473</v>
+        <v>409.9684090209505</v>
       </c>
       <c r="O38" t="n">
-        <v>400.4370970826147</v>
+        <v>483.2680845659544</v>
       </c>
       <c r="P38" t="n">
         <v>495.3699480394645</v>
       </c>
       <c r="Q38" t="n">
-        <v>488.5188432260423</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="R38" t="n">
-        <v>363.4254220039553</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="S38" t="n">
-        <v>363.4254220039553</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="T38" t="n">
-        <v>363.4254220039553</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="U38" t="n">
-        <v>363.4254220039553</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="V38" t="n">
-        <v>363.4254220039553</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="W38" t="n">
-        <v>363.4254220039553</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="X38" t="n">
-        <v>238.3320007818683</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="Y38" t="n">
-        <v>135.0008201828763</v>
+        <v>370.2765268173775</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>245.1831055952905</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="C39" t="n">
-        <v>245.1831055952905</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="D39" t="n">
-        <v>120.0896843732035</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="E39" t="n">
         <v>9.90739896078929</v>
@@ -7256,10 +7256,10 @@
         <v>9.90739896078929</v>
       </c>
       <c r="K39" t="n">
-        <v>18.75300275660339</v>
+        <v>18.75300275660351</v>
       </c>
       <c r="L39" t="n">
-        <v>98.39372511479809</v>
+        <v>98.39372511479822</v>
       </c>
       <c r="M39" t="n">
         <v>219.6401113985567</v>
@@ -7280,25 +7280,25 @@
         <v>495.3699480394645</v>
       </c>
       <c r="S39" t="n">
-        <v>495.3699480394645</v>
+        <v>370.2765268173775</v>
       </c>
       <c r="T39" t="n">
-        <v>370.2765268173775</v>
+        <v>245.1831055952905</v>
       </c>
       <c r="U39" t="n">
-        <v>370.2765268173775</v>
+        <v>120.0896843732035</v>
       </c>
       <c r="V39" t="n">
-        <v>370.2765268173775</v>
+        <v>120.0896843732035</v>
       </c>
       <c r="W39" t="n">
-        <v>370.2765268173775</v>
+        <v>120.0896843732035</v>
       </c>
       <c r="X39" t="n">
-        <v>370.2765268173775</v>
+        <v>120.0896843732035</v>
       </c>
       <c r="Y39" t="n">
-        <v>370.2765268173775</v>
+        <v>9.90739896078929</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.3699480394645</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="C40" t="n">
-        <v>495.3699480394645</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="D40" t="n">
-        <v>495.3699480394645</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="E40" t="n">
-        <v>495.3699480394645</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="F40" t="n">
-        <v>495.3699480394645</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="G40" t="n">
-        <v>495.3699480394645</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="H40" t="n">
-        <v>448.5992279584133</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="I40" t="n">
-        <v>448.5992279584133</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="J40" t="n">
-        <v>448.5992279584133</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="K40" t="n">
-        <v>448.5992279584133</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="L40" t="n">
-        <v>456.0021196202408</v>
+        <v>17.31029062261677</v>
       </c>
       <c r="M40" t="n">
-        <v>470.4266882447579</v>
+        <v>31.73485924713395</v>
       </c>
       <c r="N40" t="n">
-        <v>495.3699480394645</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="O40" t="n">
-        <v>495.3699480394645</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="P40" t="n">
-        <v>495.3699480394645</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="Q40" t="n">
-        <v>495.3699480394645</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="R40" t="n">
-        <v>495.3699480394645</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="S40" t="n">
-        <v>495.3699480394645</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="T40" t="n">
-        <v>495.3699480394645</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="U40" t="n">
-        <v>495.3699480394645</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="V40" t="n">
-        <v>495.3699480394645</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="W40" t="n">
-        <v>495.3699480394645</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="X40" t="n">
-        <v>495.3699480394645</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="Y40" t="n">
-        <v>495.3699480394645</v>
+        <v>9.90739896078929</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>245.1831055952905</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="C41" t="n">
-        <v>120.0896843732035</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="D41" t="n">
-        <v>9.90739896078929</v>
+        <v>135.0008201828763</v>
       </c>
       <c r="E41" t="n">
-        <v>9.90739896078929</v>
+        <v>135.0008201828763</v>
       </c>
       <c r="F41" t="n">
         <v>9.90739896078929</v>
@@ -7414,19 +7414,19 @@
         <v>9.90739896078929</v>
       </c>
       <c r="K41" t="n">
-        <v>81.53926335482058</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="L41" t="n">
-        <v>204.1433254945881</v>
+        <v>132.5114611005567</v>
       </c>
       <c r="M41" t="n">
-        <v>311.6889618151743</v>
+        <v>255.1155232403242</v>
       </c>
       <c r="N41" t="n">
-        <v>409.9684090209505</v>
+        <v>377.7195853800916</v>
       </c>
       <c r="O41" t="n">
-        <v>483.2680845659544</v>
+        <v>451.0192609250955</v>
       </c>
       <c r="P41" t="n">
         <v>495.3699480394645</v>
@@ -7435,25 +7435,25 @@
         <v>495.3699480394645</v>
       </c>
       <c r="R41" t="n">
-        <v>370.2765268173775</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="S41" t="n">
-        <v>370.2765268173775</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="T41" t="n">
-        <v>370.2765268173775</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="U41" t="n">
-        <v>370.2765268173775</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="V41" t="n">
-        <v>370.2765268173775</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="W41" t="n">
-        <v>370.2765268173775</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="X41" t="n">
-        <v>370.2765268173775</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="Y41" t="n">
         <v>370.2765268173775</v>
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>495.3699480394645</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="C42" t="n">
-        <v>495.3699480394645</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="D42" t="n">
-        <v>495.3699480394645</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="E42" t="n">
-        <v>370.2765268173775</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="F42" t="n">
-        <v>245.1831055952905</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="G42" t="n">
-        <v>120.0896843732035</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="H42" t="n">
         <v>9.90739896078929</v>
@@ -7514,28 +7514,28 @@
         <v>495.3699480394645</v>
       </c>
       <c r="R42" t="n">
-        <v>495.3699480394645</v>
+        <v>385.1876626270504</v>
       </c>
       <c r="S42" t="n">
-        <v>495.3699480394645</v>
+        <v>385.1876626270504</v>
       </c>
       <c r="T42" t="n">
-        <v>495.3699480394645</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="U42" t="n">
-        <v>495.3699480394645</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="V42" t="n">
-        <v>495.3699480394645</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="W42" t="n">
-        <v>495.3699480394645</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="X42" t="n">
-        <v>495.3699480394645</v>
+        <v>135.0008201828763</v>
       </c>
       <c r="Y42" t="n">
-        <v>495.3699480394645</v>
+        <v>9.90739896078929</v>
       </c>
     </row>
     <row r="43">
@@ -7584,10 +7584,10 @@
         <v>56.67811904184054</v>
       </c>
       <c r="O43" t="n">
-        <v>51.01381065166905</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="P43" t="n">
-        <v>51.01381065166905</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="Q43" t="n">
         <v>9.90739896078929</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>238.3320007818683</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="C44" t="n">
-        <v>238.3320007818683</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="D44" t="n">
-        <v>238.3320007818683</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="E44" t="n">
-        <v>238.3320007818683</v>
+        <v>135.0008201828763</v>
       </c>
       <c r="F44" t="n">
-        <v>238.3320007818683</v>
+        <v>135.0008201828763</v>
       </c>
       <c r="G44" t="n">
-        <v>113.2385795597813</v>
+        <v>135.0008201828763</v>
       </c>
       <c r="H44" t="n">
-        <v>113.2385795597813</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="I44" t="n">
         <v>9.90739896078929</v>
@@ -7660,40 +7660,40 @@
         <v>255.1155232403242</v>
       </c>
       <c r="N44" t="n">
-        <v>360.6640224261869</v>
+        <v>353.3949704461004</v>
       </c>
       <c r="O44" t="n">
-        <v>483.2680845659544</v>
+        <v>426.6946459911043</v>
       </c>
       <c r="P44" t="n">
         <v>495.3699480394645</v>
       </c>
       <c r="Q44" t="n">
-        <v>488.5188432260423</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="R44" t="n">
-        <v>488.5188432260423</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="S44" t="n">
-        <v>488.5188432260423</v>
+        <v>495.3699480394645</v>
       </c>
       <c r="T44" t="n">
-        <v>488.5188432260423</v>
+        <v>370.2765268173775</v>
       </c>
       <c r="U44" t="n">
-        <v>488.5188432260423</v>
+        <v>370.2765268173775</v>
       </c>
       <c r="V44" t="n">
-        <v>488.5188432260423</v>
+        <v>370.2765268173775</v>
       </c>
       <c r="W44" t="n">
-        <v>488.5188432260423</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="X44" t="n">
-        <v>363.4254220039553</v>
+        <v>260.0942414049633</v>
       </c>
       <c r="Y44" t="n">
-        <v>363.4254220039553</v>
+        <v>260.0942414049633</v>
       </c>
     </row>
     <row r="45">
@@ -7730,10 +7730,10 @@
         <v>9.90739896078929</v>
       </c>
       <c r="K45" t="n">
-        <v>18.75300275660334</v>
+        <v>18.75300275660351</v>
       </c>
       <c r="L45" t="n">
-        <v>98.39372511479803</v>
+        <v>98.3937251147982</v>
       </c>
       <c r="M45" t="n">
         <v>219.6401113985567</v>
@@ -7751,22 +7751,22 @@
         <v>495.3699480394645</v>
       </c>
       <c r="R45" t="n">
-        <v>495.3699480394645</v>
+        <v>373.881682686537</v>
       </c>
       <c r="S45" t="n">
-        <v>495.3699480394645</v>
+        <v>248.78826146445</v>
       </c>
       <c r="T45" t="n">
-        <v>495.3699480394645</v>
+        <v>135.0008201828763</v>
       </c>
       <c r="U45" t="n">
-        <v>385.1876626270504</v>
+        <v>135.0008201828763</v>
       </c>
       <c r="V45" t="n">
-        <v>260.0942414049633</v>
+        <v>135.0008201828763</v>
       </c>
       <c r="W45" t="n">
-        <v>135.0008201828763</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="X45" t="n">
         <v>9.90739896078929</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51.01381065166905</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="C46" t="n">
-        <v>51.01381065166905</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="D46" t="n">
-        <v>51.01381065166905</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="E46" t="n">
-        <v>51.01381065166905</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="F46" t="n">
-        <v>51.01381065166905</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="G46" t="n">
-        <v>51.01381065166905</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="H46" t="n">
-        <v>51.01381065166905</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="I46" t="n">
-        <v>51.01381065166905</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="J46" t="n">
-        <v>44.18903392698505</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="K46" t="n">
         <v>9.90739896078929</v>
@@ -7821,37 +7821,37 @@
         <v>56.67811904184054</v>
       </c>
       <c r="O46" t="n">
-        <v>51.01381065166905</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="P46" t="n">
-        <v>51.01381065166905</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.01381065166905</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="R46" t="n">
-        <v>51.01381065166905</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="S46" t="n">
-        <v>51.01381065166905</v>
+        <v>56.67811904184054</v>
       </c>
       <c r="T46" t="n">
-        <v>51.01381065166905</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="U46" t="n">
-        <v>51.01381065166905</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="V46" t="n">
-        <v>51.01381065166905</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="W46" t="n">
-        <v>51.01381065166905</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="X46" t="n">
-        <v>51.01381065166905</v>
+        <v>9.90739896078929</v>
       </c>
       <c r="Y46" t="n">
-        <v>51.01381065166905</v>
+        <v>9.90739896078929</v>
       </c>
     </row>
   </sheetData>
@@ -8695,19 +8695,19 @@
         <v>11.92238868867332</v>
       </c>
       <c r="L11" t="n">
-        <v>33.02620325645758</v>
+        <v>84.11929804684227</v>
       </c>
       <c r="M11" t="n">
-        <v>32.85838922515705</v>
+        <v>15.6305478575765</v>
       </c>
       <c r="N11" t="n">
         <v>24.57031811514258</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>49.80241070178135</v>
       </c>
       <c r="P11" t="n">
-        <v>83.66766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8932,19 +8932,19 @@
         <v>11.92238868867327</v>
       </c>
       <c r="L14" t="n">
-        <v>84.11929804684222</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>32.85838922515698</v>
+        <v>32.8583892251571</v>
       </c>
       <c r="N14" t="n">
-        <v>7.342476747561861</v>
+        <v>24.57031811514263</v>
       </c>
       <c r="O14" t="n">
-        <v>49.8024107017813</v>
+        <v>49.8024107017814</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>66.89145667926179</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9166,19 +9166,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>84.27780726850284</v>
+        <v>11.92238868867327</v>
       </c>
       <c r="L17" t="n">
-        <v>18.09949201692736</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>32.8583892251571</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>7.794110669818892</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>49.80241070178141</v>
       </c>
       <c r="P17" t="n">
         <v>83.66766412458549</v>
@@ -9406,19 +9406,19 @@
         <v>11.92238868867327</v>
       </c>
       <c r="L20" t="n">
-        <v>84.11929804684169</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>32.85838922515646</v>
+        <v>32.8583892251571</v>
       </c>
       <c r="N20" t="n">
-        <v>24.57031811514199</v>
+        <v>24.57031811514263</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>49.8024107017814</v>
       </c>
       <c r="P20" t="n">
-        <v>32.57456933420018</v>
+        <v>66.89145667926179</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>38.2999913928224</v>
+        <v>38.2999913928243</v>
       </c>
       <c r="R21" t="n">
         <v>11.83563415094341</v>
@@ -9643,7 +9643,7 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L23" t="n">
-        <v>108.5919157831171</v>
+        <v>108.5919157831169</v>
       </c>
       <c r="M23" t="n">
         <v>116.8735187081365</v>
@@ -9719,13 +9719,13 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>16.04838306487847</v>
       </c>
       <c r="L24" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M24" t="n">
-        <v>16.04838306487849</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>82.93713689145011</v>
@@ -9892,7 +9892,7 @@
         <v>99.00804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>83.66766412458522</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9959,19 +9959,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L27" t="n">
-        <v>19.17896752926576</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M27" t="n">
-        <v>107.4640805826918</v>
+        <v>30.08774128799169</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>82.93713689145011</v>
       </c>
       <c r="O27" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>82.80031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10114,7 +10114,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850263</v>
       </c>
       <c r="L29" t="n">
         <v>108.5919157831171</v>
@@ -10193,22 +10193,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
         <v>96.41848977889939</v>
       </c>
       <c r="M30" t="n">
-        <v>16.04838306487849</v>
+        <v>107.4640805826918</v>
       </c>
       <c r="N30" t="n">
-        <v>82.93713689145011</v>
+        <v>82.93713689145008</v>
       </c>
       <c r="O30" t="n">
-        <v>102.4042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>82.80031984638366</v>
+        <v>25.02786371724974</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10433,13 +10433,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>96.41848977889939</v>
+        <v>5.0027922610861</v>
       </c>
       <c r="M33" t="n">
         <v>107.4640805826918</v>
       </c>
       <c r="N33" t="n">
-        <v>7.841542792133254</v>
+        <v>82.93713689145011</v>
       </c>
       <c r="O33" t="n">
         <v>102.4042030119497</v>
@@ -10448,7 +10448,7 @@
         <v>82.80031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>38.2999913928243</v>
+        <v>54.62009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>11.83563415094341</v>
@@ -10588,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>84.27780726850284</v>
+        <v>11.92238868867327</v>
       </c>
       <c r="L35" t="n">
-        <v>84.11929804684233</v>
+        <v>84.11929804684235</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>17.64785809467098</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>49.80241070178141</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>40.20086597271916</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10825,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>11.92238868867327</v>
+        <v>77.35534724803121</v>
       </c>
       <c r="L38" t="n">
-        <v>40.652499894976</v>
+        <v>84.11929804684235</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>24.57031811514264</v>
       </c>
       <c r="O38" t="n">
-        <v>49.80241070178141</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>83.66766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -11062,22 +11062,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>84.27780726850284</v>
+        <v>11.92238868867327</v>
       </c>
       <c r="L41" t="n">
         <v>84.11929804684233</v>
       </c>
       <c r="M41" t="n">
-        <v>17.64785809467097</v>
+        <v>32.8583892251571</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>24.57031811514263</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>32.57456933420087</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11308,13 +11308,13 @@
         <v>32.8583892251571</v>
       </c>
       <c r="N44" t="n">
-        <v>7.342476747562088</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>49.80241070178141</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>57.1448874493435</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -23266,13 +23266,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E11" t="n">
-        <v>359.9585549362873</v>
+        <v>250.8780923779974</v>
       </c>
       <c r="F11" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.1535086749599</v>
+        <v>297.3110216650938</v>
       </c>
       <c r="H11" t="n">
         <v>339.1414425966436</v>
@@ -23305,16 +23305,16 @@
         <v>6.782593765288027</v>
       </c>
       <c r="R11" t="n">
-        <v>21.29992621553568</v>
+        <v>145.1424132254017</v>
       </c>
       <c r="S11" t="n">
         <v>88.02066784359353</v>
       </c>
       <c r="T11" t="n">
-        <v>91.00520064022332</v>
+        <v>214.8476876500893</v>
       </c>
       <c r="U11" t="n">
-        <v>139.6262059465058</v>
+        <v>248.7066685047958</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23326,7 +23326,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y11" t="n">
-        <v>377.9289763951821</v>
+        <v>254.0864893853161</v>
       </c>
     </row>
     <row r="12">
@@ -23360,7 +23360,7 @@
         <v>98.03068442008356</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>29.53997679015154</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>11.19292014110839</v>
       </c>
       <c r="S12" t="n">
         <v>73.97279006030955</v>
@@ -23393,7 +23393,7 @@
         <v>104.0378292675848</v>
       </c>
       <c r="U12" t="n">
-        <v>166.5038113137317</v>
+        <v>125.7709143824718</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23439,10 +23439,10 @@
         <v>153.8808869708108</v>
       </c>
       <c r="J13" t="n">
-        <v>87.34428259838822</v>
+        <v>99.70847686209505</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>33.93881861653382</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>200.3384979558454</v>
       </c>
       <c r="S13" t="n">
-        <v>235.6631791034025</v>
+        <v>189.3601662231618</v>
       </c>
       <c r="T13" t="n">
         <v>216.1181730604056</v>
@@ -23500,7 +23500,7 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D14" t="n">
-        <v>319.1317556432476</v>
+        <v>216.8338868502456</v>
       </c>
       <c r="E14" t="n">
         <v>359.9585549362873</v>
@@ -23539,28 +23539,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.78259376528797</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>145.1424132254017</v>
+        <v>21.29992621553554</v>
       </c>
       <c r="S14" t="n">
-        <v>88.02066784359353</v>
+        <v>211.8631548534595</v>
       </c>
       <c r="T14" t="n">
-        <v>91.00520064022332</v>
+        <v>214.8476876500893</v>
       </c>
       <c r="U14" t="n">
-        <v>124.8641814949298</v>
+        <v>248.7066685047958</v>
       </c>
       <c r="V14" t="n">
-        <v>204.2239794427331</v>
+        <v>313.3044420010231</v>
       </c>
       <c r="W14" t="n">
-        <v>325.3917254792934</v>
+        <v>201.5492384694272</v>
       </c>
       <c r="X14" t="n">
-        <v>348.8168793035129</v>
+        <v>224.9743922936468</v>
       </c>
       <c r="Y14" t="n">
         <v>377.9289763951821</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.19292014110837</v>
+        <v>11.19292014110826</v>
       </c>
       <c r="S15" t="n">
-        <v>73.97279006030955</v>
+        <v>73.97279006030944</v>
       </c>
       <c r="T15" t="n">
-        <v>104.0378292675848</v>
+        <v>104.0378292675847</v>
       </c>
       <c r="U15" t="n">
-        <v>125.7709143824718</v>
+        <v>249.6134013923378</v>
       </c>
       <c r="V15" t="n">
-        <v>249.2999251801724</v>
+        <v>125.4574381703062</v>
       </c>
       <c r="W15" t="n">
         <v>283.2492567629311</v>
@@ -23676,10 +23676,10 @@
         <v>153.8808869708108</v>
       </c>
       <c r="J16" t="n">
-        <v>87.34428259838809</v>
+        <v>99.70847686209504</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>33.93881861653379</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>235.6631791034025</v>
       </c>
       <c r="T16" t="n">
-        <v>216.1181730604056</v>
+        <v>169.8151601801649</v>
       </c>
       <c r="U16" t="n">
         <v>291.1944506430768</v>
@@ -23740,16 +23740,16 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E17" t="n">
-        <v>236.1160679264213</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F17" t="n">
-        <v>275.303930563503</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>297.3110216650938</v>
+        <v>421.1535086749599</v>
       </c>
       <c r="H17" t="n">
-        <v>230.0609800383536</v>
+        <v>339.1414425966436</v>
       </c>
       <c r="I17" t="n">
         <v>213.6887770122727</v>
@@ -23776,25 +23776,25 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.78259376528797</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>145.1424132254017</v>
+        <v>21.29992621553554</v>
       </c>
       <c r="S17" t="n">
         <v>211.8631548534595</v>
       </c>
       <c r="T17" t="n">
-        <v>214.8476876500893</v>
+        <v>91.00520064022321</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7066685047958</v>
+        <v>124.8641814949297</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W17" t="n">
-        <v>325.3917254792934</v>
+        <v>223.0938566862913</v>
       </c>
       <c r="X17" t="n">
         <v>348.8168793035129</v>
@@ -23819,22 +23819,22 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E18" t="n">
-        <v>63.61805828773682</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F18" t="n">
-        <v>50.1418611154579</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>36.62295253904414</v>
+        <v>160.4654395489102</v>
       </c>
       <c r="H18" t="n">
         <v>132.4430839540119</v>
       </c>
       <c r="I18" t="n">
-        <v>18.49019865194509</v>
+        <v>98.03068442008355</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.53997679015153</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>120.2733826993983</v>
+        <v>11.19292014110826</v>
       </c>
       <c r="S18" t="n">
-        <v>197.8152770701756</v>
+        <v>73.97279006030944</v>
       </c>
       <c r="T18" t="n">
-        <v>227.8803162774508</v>
+        <v>104.0378292675847</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6134013923378</v>
+        <v>125.7709143824717</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23931,10 +23931,10 @@
         <v>5.60766530626978</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>34.12903113951162</v>
       </c>
       <c r="Q19" t="n">
-        <v>100.8869315752058</v>
+        <v>113.0609133159349</v>
       </c>
       <c r="R19" t="n">
         <v>200.3384979558453</v>
@@ -23952,7 +23952,7 @@
         <v>237.3615500762718</v>
       </c>
       <c r="W19" t="n">
-        <v>294.4857951463376</v>
+        <v>248.1827822660969</v>
       </c>
       <c r="X19" t="n">
         <v>217.7416213385031</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>240.7138405871977</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C20" t="n">
         <v>333.5971194742085</v>
@@ -23977,16 +23977,16 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>359.9585549362873</v>
+        <v>236.1160679264212</v>
       </c>
       <c r="F20" t="n">
-        <v>275.3039305635035</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>297.3110216650944</v>
+        <v>421.1535086749599</v>
       </c>
       <c r="H20" t="n">
-        <v>230.060980038354</v>
+        <v>215.2989555867774</v>
       </c>
       <c r="I20" t="n">
         <v>213.6887770122727</v>
@@ -24016,7 +24016,7 @@
         <v>6.78259376528797</v>
       </c>
       <c r="R20" t="n">
-        <v>145.1424132254017</v>
+        <v>36.06195066711166</v>
       </c>
       <c r="S20" t="n">
         <v>211.8631548534595</v>
@@ -24031,7 +24031,7 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W20" t="n">
-        <v>325.3917254792934</v>
+        <v>201.5492384694272</v>
       </c>
       <c r="X20" t="n">
         <v>348.8168793035129</v>
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>188.0127573810344</v>
+        <v>78.93229482274438</v>
       </c>
       <c r="C21" t="n">
-        <v>79.99994060537389</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D21" t="n">
-        <v>48.25645536964672</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E21" t="n">
-        <v>63.61805828773734</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F21" t="n">
         <v>173.9843481253239</v>
@@ -24065,7 +24065,7 @@
         <v>160.4654395489102</v>
       </c>
       <c r="H21" t="n">
-        <v>23.36262139572234</v>
+        <v>132.4430839540119</v>
       </c>
       <c r="I21" t="n">
         <v>98.03068442008355</v>
@@ -24101,13 +24101,13 @@
         <v>197.8152770701756</v>
       </c>
       <c r="T21" t="n">
-        <v>227.8803162774508</v>
+        <v>104.0378292675847</v>
       </c>
       <c r="U21" t="n">
         <v>249.6134013923378</v>
       </c>
       <c r="V21" t="n">
-        <v>249.2999251801724</v>
+        <v>125.4574381703062</v>
       </c>
       <c r="W21" t="n">
         <v>283.2492567629311</v>
@@ -24116,7 +24116,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y21" t="n">
-        <v>242.8962664135933</v>
+        <v>119.0537794037272</v>
       </c>
     </row>
     <row r="22">
@@ -24168,7 +24168,7 @@
         <v>5.60766530626978</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>34.12903113951162</v>
       </c>
       <c r="Q22" t="n">
         <v>113.0609133159349</v>
@@ -24189,13 +24189,13 @@
         <v>237.3615500762718</v>
       </c>
       <c r="W22" t="n">
-        <v>282.3118134056085</v>
+        <v>294.4857951463376</v>
       </c>
       <c r="X22" t="n">
         <v>217.7416213385031</v>
       </c>
       <c r="Y22" t="n">
-        <v>215.5502738121359</v>
+        <v>169.2472609318952</v>
       </c>
     </row>
     <row r="23">
@@ -24214,7 +24214,7 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E23" t="n">
-        <v>130.0233770972739</v>
+        <v>139.3596273101304</v>
       </c>
       <c r="F23" t="n">
         <v>169.2112397343556</v>
@@ -24223,7 +24223,7 @@
         <v>191.2183308359464</v>
       </c>
       <c r="H23" t="n">
-        <v>136.6145379560406</v>
+        <v>339.1414425966436</v>
       </c>
       <c r="I23" t="n">
         <v>213.6887770122727</v>
@@ -24256,7 +24256,7 @@
         <v>145.1424132254017</v>
       </c>
       <c r="S23" t="n">
-        <v>211.8631548534595</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>214.8476876500893</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D24" t="n">
         <v>172.0989423795122</v>
@@ -24302,13 +24302,13 @@
         <v>160.4654395489102</v>
       </c>
       <c r="H24" t="n">
-        <v>77.62515177245116</v>
+        <v>132.4430839540119</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>98.03068442008355</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.53997679015153</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>197.8152770701756</v>
       </c>
       <c r="T24" t="n">
         <v>227.8803162774508</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6134013923378</v>
+        <v>167.3598794511332</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>19.3647473411589</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2492567629311</v>
+        <v>53.31407892391763</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>242.8962664135933</v>
+        <v>12.96108857457986</v>
       </c>
     </row>
     <row r="25">
@@ -24384,7 +24384,7 @@
         <v>163.481541199619</v>
       </c>
       <c r="I25" t="n">
-        <v>107.5778740905701</v>
+        <v>153.8808869708108</v>
       </c>
       <c r="J25" t="n">
         <v>99.70847686209504</v>
@@ -24420,7 +24420,7 @@
         <v>216.1181730604056</v>
       </c>
       <c r="U25" t="n">
-        <v>291.1944506430768</v>
+        <v>244.8914377628361</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24463,7 +24463,7 @@
         <v>109.2062647576301</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>213.6887770122727</v>
       </c>
       <c r="J26" t="n">
         <v>14.00155398839038</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>145.1424132254017</v>
       </c>
       <c r="S26" t="n">
-        <v>145.0148563768054</v>
+        <v>211.8631548534595</v>
       </c>
       <c r="T26" t="n">
         <v>214.8476876500893</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7066685047958</v>
+        <v>18.77149066578232</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24511,7 +24511,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y26" t="n">
-        <v>377.9289763951821</v>
+        <v>182.1846655198672</v>
       </c>
     </row>
     <row r="27">
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>120.2733826993983</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>197.8152770701756</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>133.1851171207325</v>
+        <v>249.6134013923378</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
-        <v>283.2492567629311</v>
+        <v>53.31407892391763</v>
       </c>
       <c r="X27" t="n">
         <v>0.09788587194950082</v>
       </c>
       <c r="Y27" t="n">
-        <v>242.8962664135933</v>
+        <v>38.31450021142768</v>
       </c>
     </row>
     <row r="28">
@@ -24660,10 +24660,10 @@
         <v>291.1944506430768</v>
       </c>
       <c r="V28" t="n">
-        <v>191.058537196031</v>
+        <v>237.3615500762718</v>
       </c>
       <c r="W28" t="n">
-        <v>294.4857951463376</v>
+        <v>248.1827822660969</v>
       </c>
       <c r="X28" t="n">
         <v>217.7416213385031</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>134.6211497580497</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
-        <v>103.661941635195</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D29" t="n">
         <v>319.1317556432476</v>
@@ -24691,13 +24691,13 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F29" t="n">
-        <v>399.146417573369</v>
+        <v>169.2112397343556</v>
       </c>
       <c r="G29" t="n">
         <v>421.1535086749599</v>
       </c>
       <c r="H29" t="n">
-        <v>339.1414425966436</v>
+        <v>109.2062647576301</v>
       </c>
       <c r="I29" t="n">
         <v>213.6887770122727</v>
@@ -24736,7 +24736,7 @@
         <v>214.8476876500893</v>
       </c>
       <c r="U29" t="n">
-        <v>46.17976386419264</v>
+        <v>46.17976386419286</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24770,7 +24770,7 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
         <v>160.4654395489102</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>120.2733826993983</v>
       </c>
       <c r="S30" t="n">
-        <v>59.61092541528126</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>227.8803162774508</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>249.6134013923378</v>
       </c>
       <c r="V30" t="n">
-        <v>249.2999251801724</v>
+        <v>242.5334360481823</v>
       </c>
       <c r="W30" t="n">
         <v>53.31407892391763</v>
       </c>
       <c r="X30" t="n">
-        <v>230.033063710963</v>
+        <v>0.09788587194950082</v>
       </c>
       <c r="Y30" t="n">
-        <v>12.96108857457986</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>122.4706638829166</v>
+        <v>168.7736767631573</v>
       </c>
       <c r="H31" t="n">
         <v>163.481541199619</v>
@@ -24903,7 +24903,7 @@
         <v>294.4857951463376</v>
       </c>
       <c r="X31" t="n">
-        <v>217.7416213385031</v>
+        <v>171.4386084582623</v>
       </c>
       <c r="Y31" t="n">
         <v>215.5502738121359</v>
@@ -24925,7 +24925,7 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>359.9585549362873</v>
+        <v>157.4316502956844</v>
       </c>
       <c r="F32" t="n">
         <v>399.146417573369</v>
@@ -24934,7 +24934,7 @@
         <v>421.1535086749599</v>
       </c>
       <c r="H32" t="n">
-        <v>109.2062647576301</v>
+        <v>339.1414425966436</v>
       </c>
       <c r="I32" t="n">
         <v>213.6887770122727</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>6.78259376528797</v>
       </c>
       <c r="R32" t="n">
         <v>145.1424132254017</v>
@@ -24970,10 +24970,10 @@
         <v>211.8631548534595</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>214.8476876500893</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7066685047958</v>
+        <v>18.77149066578232</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -24982,7 +24982,7 @@
         <v>95.45654764027989</v>
       </c>
       <c r="X32" t="n">
-        <v>137.9850782392738</v>
+        <v>118.8817014644994</v>
       </c>
       <c r="Y32" t="n">
         <v>377.9289763951821</v>
@@ -25016,7 +25016,7 @@
         <v>132.4430839540119</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>98.03068442008355</v>
       </c>
       <c r="J33" t="n">
         <v>29.53997679015153</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>120.2733826993983</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>197.8152770701756</v>
+        <v>115.5617551289709</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>227.8803162774508</v>
       </c>
       <c r="U33" t="n">
-        <v>143.0623196102557</v>
+        <v>19.67822355332436</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25113,13 +25113,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>5.60766530626978</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>34.12903113951162</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.4945968814755</v>
+        <v>113.0609133159349</v>
       </c>
       <c r="R34" t="n">
         <v>200.3384979558453</v>
@@ -25137,7 +25137,7 @@
         <v>237.3615500762718</v>
       </c>
       <c r="W34" t="n">
-        <v>294.4857951463376</v>
+        <v>248.1827822660969</v>
       </c>
       <c r="X34" t="n">
         <v>217.7416213385031</v>
@@ -25162,13 +25162,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E35" t="n">
-        <v>359.9585549362873</v>
+        <v>236.1160679264212</v>
       </c>
       <c r="F35" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>297.3110216650937</v>
+        <v>421.1535086749599</v>
       </c>
       <c r="H35" t="n">
         <v>339.1414425966436</v>
@@ -25204,22 +25204,22 @@
         <v>145.1424132254017</v>
       </c>
       <c r="S35" t="n">
-        <v>102.7826922951695</v>
+        <v>211.8631548534595</v>
       </c>
       <c r="T35" t="n">
-        <v>91.00520064022321</v>
+        <v>214.8476876500893</v>
       </c>
       <c r="U35" t="n">
-        <v>124.8641814949297</v>
+        <v>248.7066685047958</v>
       </c>
       <c r="V35" t="n">
-        <v>313.3044420010231</v>
+        <v>204.2239794427331</v>
       </c>
       <c r="W35" t="n">
-        <v>325.3917254792934</v>
+        <v>201.5492384694272</v>
       </c>
       <c r="X35" t="n">
-        <v>348.8168793035129</v>
+        <v>224.9743922936468</v>
       </c>
       <c r="Y35" t="n">
         <v>377.9289763951821</v>
@@ -25244,7 +25244,7 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F36" t="n">
-        <v>64.90388556703385</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
         <v>160.4654395489102</v>
@@ -25283,10 +25283,10 @@
         <v>120.2733826993983</v>
       </c>
       <c r="S36" t="n">
-        <v>197.8152770701756</v>
+        <v>73.97279006030942</v>
       </c>
       <c r="T36" t="n">
-        <v>227.8803162774508</v>
+        <v>104.0378292675846</v>
       </c>
       <c r="U36" t="n">
         <v>249.6134013923378</v>
@@ -25295,13 +25295,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W36" t="n">
-        <v>159.406769753065</v>
+        <v>174.1687942046411</v>
       </c>
       <c r="X36" t="n">
         <v>106.1905767010968</v>
       </c>
       <c r="Y36" t="n">
-        <v>119.0537794037272</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="37">
@@ -25332,7 +25332,7 @@
         <v>163.481541199619</v>
       </c>
       <c r="I37" t="n">
-        <v>107.57787409057</v>
+        <v>153.8808869708108</v>
       </c>
       <c r="J37" t="n">
         <v>99.70847686209504</v>
@@ -25356,7 +25356,7 @@
         <v>34.12903113951162</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.0609133159349</v>
+        <v>66.75790043569413</v>
       </c>
       <c r="R37" t="n">
         <v>200.3384979558453</v>
@@ -25393,7 +25393,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C38" t="n">
-        <v>333.5971194742085</v>
+        <v>224.5166569159184</v>
       </c>
       <c r="D38" t="n">
         <v>319.1317556432476</v>
@@ -25402,7 +25402,7 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F38" t="n">
-        <v>399.146417573369</v>
+        <v>275.3039305635029</v>
       </c>
       <c r="G38" t="n">
         <v>297.3110216650937</v>
@@ -25435,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>6.78259376528797</v>
       </c>
       <c r="R38" t="n">
-        <v>21.29992621553554</v>
+        <v>145.1424132254017</v>
       </c>
       <c r="S38" t="n">
         <v>211.8631548534595</v>
@@ -25456,10 +25456,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X38" t="n">
-        <v>224.9743922936468</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y38" t="n">
-        <v>275.6311076021801</v>
+        <v>254.086489385316</v>
       </c>
     </row>
     <row r="39">
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>64.17027037116831</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
         <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
-        <v>48.25645536964608</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>78.38008273931277</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
         <v>173.9843481253239</v>
@@ -25520,13 +25520,13 @@
         <v>120.2733826993983</v>
       </c>
       <c r="S39" t="n">
-        <v>197.8152770701756</v>
+        <v>73.97279006030944</v>
       </c>
       <c r="T39" t="n">
         <v>104.0378292675847</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6134013923378</v>
+        <v>125.7709143824717</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25538,7 +25538,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y39" t="n">
-        <v>242.8962664135933</v>
+        <v>133.8158038553033</v>
       </c>
     </row>
     <row r="40">
@@ -25566,7 +25566,7 @@
         <v>168.7736767631573</v>
       </c>
       <c r="H40" t="n">
-        <v>117.1785283193783</v>
+        <v>163.481541199619</v>
       </c>
       <c r="I40" t="n">
         <v>153.8808869708108</v>
@@ -25608,7 +25608,7 @@
         <v>291.1944506430768</v>
       </c>
       <c r="V40" t="n">
-        <v>237.3615500762718</v>
+        <v>191.058537196031</v>
       </c>
       <c r="W40" t="n">
         <v>294.4857951463376</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>240.713840587197</v>
+        <v>255.4758650387731</v>
       </c>
       <c r="C41" t="n">
-        <v>209.7546324643423</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
-        <v>210.0512930849576</v>
+        <v>195.2892686333815</v>
       </c>
       <c r="E41" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>399.146417573369</v>
+        <v>275.3039305635029</v>
       </c>
       <c r="G41" t="n">
         <v>421.1535086749599</v>
@@ -25675,7 +25675,7 @@
         <v>6.78259376528797</v>
       </c>
       <c r="R41" t="n">
-        <v>21.29992621553554</v>
+        <v>145.1424132254017</v>
       </c>
       <c r="S41" t="n">
         <v>211.8631548534595</v>
@@ -25696,7 +25696,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y41" t="n">
-        <v>377.9289763951821</v>
+        <v>254.086489385316</v>
       </c>
     </row>
     <row r="42">
@@ -25715,16 +25715,16 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E42" t="n">
-        <v>63.6180582877367</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F42" t="n">
-        <v>50.14186111545779</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>36.62295253904402</v>
+        <v>160.4654395489102</v>
       </c>
       <c r="H42" t="n">
-        <v>23.36262139572179</v>
+        <v>132.4430839540119</v>
       </c>
       <c r="I42" t="n">
         <v>98.03068442008355</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>120.2733826993983</v>
+        <v>11.19292014110826</v>
       </c>
       <c r="S42" t="n">
         <v>197.8152770701756</v>
       </c>
       <c r="T42" t="n">
-        <v>227.8803162774508</v>
+        <v>104.0378292675847</v>
       </c>
       <c r="U42" t="n">
         <v>249.6134013923378</v>
@@ -25772,10 +25772,10 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X42" t="n">
-        <v>230.033063710963</v>
+        <v>106.1905767010968</v>
       </c>
       <c r="Y42" t="n">
-        <v>242.8962664135933</v>
+        <v>119.0537794037272</v>
       </c>
     </row>
     <row r="43">
@@ -25824,13 +25824,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>5.60766530626978</v>
       </c>
       <c r="P43" t="n">
         <v>34.12903113951162</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.36556574196391</v>
+        <v>66.75790043569413</v>
       </c>
       <c r="R43" t="n">
         <v>200.3384979558453</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>240.713840587197</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C44" t="n">
         <v>333.5971194742085</v>
@@ -25873,19 +25873,19 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E44" t="n">
-        <v>359.9585549362873</v>
+        <v>236.1160679264212</v>
       </c>
       <c r="F44" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>297.3110216650937</v>
+        <v>421.1535086749599</v>
       </c>
       <c r="H44" t="n">
-        <v>339.1414425966436</v>
+        <v>215.2989555867774</v>
       </c>
       <c r="I44" t="n">
-        <v>111.3909082192706</v>
+        <v>213.6887770122727</v>
       </c>
       <c r="J44" t="n">
         <v>14.00155398839038</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>6.78259376528797</v>
       </c>
       <c r="R44" t="n">
         <v>145.1424132254017</v>
@@ -25918,7 +25918,7 @@
         <v>211.8631548534595</v>
       </c>
       <c r="T44" t="n">
-        <v>214.8476876500893</v>
+        <v>91.00520064022321</v>
       </c>
       <c r="U44" t="n">
         <v>248.7066685047958</v>
@@ -25927,10 +25927,10 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W44" t="n">
-        <v>325.3917254792934</v>
+        <v>216.3112629210033</v>
       </c>
       <c r="X44" t="n">
-        <v>224.9743922936468</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y44" t="n">
         <v>377.9289763951821</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>120.2733826993983</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>197.8152770701756</v>
+        <v>73.97279006030944</v>
       </c>
       <c r="T45" t="n">
-        <v>227.8803162774508</v>
+        <v>115.2307494086929</v>
       </c>
       <c r="U45" t="n">
-        <v>140.5329388340478</v>
+        <v>249.6134013923378</v>
       </c>
       <c r="V45" t="n">
-        <v>125.4574381703062</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
         <v>159.406769753065</v>
       </c>
       <c r="X45" t="n">
-        <v>106.1905767010968</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y45" t="n">
         <v>242.8962664135933</v>
@@ -26046,10 +26046,10 @@
         <v>153.8808869708108</v>
       </c>
       <c r="J46" t="n">
-        <v>92.95194790465789</v>
+        <v>99.70847686209504</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>33.93881861653379</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26061,7 +26061,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>5.60766530626978</v>
       </c>
       <c r="P46" t="n">
         <v>34.12903113951162</v>
@@ -26076,7 +26076,7 @@
         <v>235.6631791034025</v>
       </c>
       <c r="T46" t="n">
-        <v>216.1181730604056</v>
+        <v>169.8151601801649</v>
       </c>
       <c r="U46" t="n">
         <v>291.1944506430768</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>414089.0593356534</v>
+        <v>414089.0593356532</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>414089.0593356533</v>
+        <v>414089.0593356534</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>414089.0593356533</v>
+        <v>414089.0593356535</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>414089.0593356531</v>
+        <v>414089.0593356534</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481913.4166035826</v>
+        <v>481913.4166035827</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>481913.4166035825</v>
+        <v>481913.4166035826</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>414089.0593356535</v>
+        <v>414089.0593356534</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>414089.0593356534</v>
+        <v>414089.0593356532</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>414089.0593356534</v>
+        <v>414089.0593356535</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>713195.7535049173</v>
+      </c>
+      <c r="C2" t="n">
         <v>713195.753504917</v>
       </c>
-      <c r="C2" t="n">
-        <v>713195.7535049171</v>
-      </c>
       <c r="D2" t="n">
-        <v>713195.753504917</v>
+        <v>713195.7535049169</v>
       </c>
       <c r="E2" t="n">
         <v>301632.931904088</v>
       </c>
       <c r="F2" t="n">
-        <v>301632.931904088</v>
+        <v>301632.9319040881</v>
       </c>
       <c r="G2" t="n">
         <v>301632.9319040881</v>
       </c>
       <c r="H2" t="n">
-        <v>301632.9319040879</v>
+        <v>301632.931904088</v>
       </c>
       <c r="I2" t="n">
         <v>339305.7249872206</v>
       </c>
       <c r="J2" t="n">
-        <v>339305.7249872207</v>
+        <v>339305.7249872205</v>
       </c>
       <c r="K2" t="n">
         <v>339305.7249872206</v>
@@ -26352,10 +26352,10 @@
         <v>301632.9319040881</v>
       </c>
       <c r="O2" t="n">
-        <v>301632.9319040881</v>
+        <v>301632.931904088</v>
       </c>
       <c r="P2" t="n">
-        <v>301632.9319040881</v>
+        <v>301632.931904088</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28212.27443797786</v>
+        <v>28212.27443797772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4423.320207419799</v>
+        <v>4423.320207419748</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>12003.25456697472</v>
       </c>
       <c r="F4" t="n">
-        <v>12003.25456697471</v>
+        <v>12003.25456697472</v>
       </c>
       <c r="G4" t="n">
-        <v>12003.25456697471</v>
+        <v>12003.25456697472</v>
       </c>
       <c r="H4" t="n">
-        <v>12003.25456697462</v>
+        <v>12003.25456697472</v>
       </c>
       <c r="I4" t="n">
         <v>29674.09646415465</v>
@@ -26487,7 +26487,7 @@
         <v>20743.3080848908</v>
       </c>
       <c r="H5" t="n">
-        <v>20743.30808489077</v>
+        <v>20743.3080848908</v>
       </c>
       <c r="I5" t="n">
         <v>27193.74368730296</v>
@@ -26502,7 +26502,7 @@
         <v>27193.74368730296</v>
       </c>
       <c r="M5" t="n">
-        <v>20743.3080848908</v>
+        <v>20743.30808489081</v>
       </c>
       <c r="N5" t="n">
         <v>20743.3080848908</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157438.184492305</v>
+        <v>157391.2399513725</v>
       </c>
       <c r="C6" t="n">
-        <v>157438.1844923052</v>
+        <v>157391.2399513722</v>
       </c>
       <c r="D6" t="n">
-        <v>157438.184492305</v>
+        <v>157391.2399513721</v>
       </c>
       <c r="E6" t="n">
-        <v>-255058.8081269306</v>
+        <v>-268824.5133878911</v>
       </c>
       <c r="F6" t="n">
-        <v>268886.3692522225</v>
+        <v>255120.6639912621</v>
       </c>
       <c r="G6" t="n">
-        <v>268886.3692522226</v>
+        <v>255120.6639912622</v>
       </c>
       <c r="H6" t="n">
-        <v>268886.3692522225</v>
+        <v>255120.6639912621</v>
       </c>
       <c r="I6" t="n">
-        <v>254225.6103977851</v>
+        <v>241715.6649062626</v>
       </c>
       <c r="J6" t="n">
-        <v>282437.884835763</v>
+        <v>269927.9393442402</v>
       </c>
       <c r="K6" t="n">
-        <v>282437.884835763</v>
+        <v>269927.9393442403</v>
       </c>
       <c r="L6" t="n">
-        <v>282437.8848357631</v>
+        <v>269927.9393442404</v>
       </c>
       <c r="M6" t="n">
-        <v>264463.0490448027</v>
+        <v>250697.3437838424</v>
       </c>
       <c r="N6" t="n">
-        <v>268886.3692522225</v>
+        <v>255120.6639912622</v>
       </c>
       <c r="O6" t="n">
-        <v>268886.3692522225</v>
+        <v>255120.6639912621</v>
       </c>
       <c r="P6" t="n">
-        <v>268886.3692522225</v>
+        <v>255120.6639912621</v>
       </c>
     </row>
   </sheetData>
@@ -26801,13 +26801,13 @@
         <v>123.842487009866</v>
       </c>
       <c r="F4" t="n">
-        <v>123.842487009866</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="G4" t="n">
-        <v>123.842487009866</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="H4" t="n">
-        <v>123.8424870098655</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="I4" t="n">
         <v>229.9351778390135</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.092690829148</v>
+        <v>106.0926908291474</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>17.7497961807186</v>
+        <v>17.7497961807184</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32089,13 +32089,13 @@
         <v>330.3421218672735</v>
       </c>
       <c r="N15" t="n">
-        <v>315.929740931741</v>
+        <v>315.9297409317411</v>
       </c>
       <c r="O15" t="n">
         <v>310.1967991160462</v>
       </c>
       <c r="P15" t="n">
-        <v>248.9602787235129</v>
+        <v>248.9602787235132</v>
       </c>
       <c r="Q15" t="n">
         <v>166.4233532079822</v>
@@ -32326,7 +32326,7 @@
         <v>330.3421218672735</v>
       </c>
       <c r="N18" t="n">
-        <v>315.929740931741</v>
+        <v>315.9297409317411</v>
       </c>
       <c r="O18" t="n">
         <v>310.1967991160462</v>
@@ -32563,7 +32563,7 @@
         <v>330.3421218672735</v>
       </c>
       <c r="N21" t="n">
-        <v>315.9297409317405</v>
+        <v>315.9297409317411</v>
       </c>
       <c r="O21" t="n">
         <v>310.1967991160462</v>
@@ -35415,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>72.74939221948132</v>
+        <v>123.842487009866</v>
       </c>
       <c r="M11" t="n">
-        <v>123.842487009866</v>
+        <v>106.6146456422855</v>
       </c>
       <c r="N11" t="n">
         <v>123.842487009866</v>
       </c>
       <c r="O11" t="n">
-        <v>74.04007630808468</v>
+        <v>123.842487009866</v>
       </c>
       <c r="P11" t="n">
-        <v>95.89176864328255</v>
+        <v>12.22410451869706</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>123.842487009866</v>
+        <v>39.7231889630238</v>
       </c>
       <c r="M14" t="n">
-        <v>123.842487009866</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="N14" t="n">
-        <v>106.6146456422854</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="O14" t="n">
-        <v>123.842487009866</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="P14" t="n">
-        <v>12.22410451869712</v>
+        <v>79.11556119795891</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35737,13 +35737,13 @@
         <v>122.4710972563217</v>
       </c>
       <c r="N15" t="n">
-        <v>123.842487009866</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="O15" t="n">
         <v>101.6497916160462</v>
       </c>
       <c r="P15" t="n">
-        <v>53.02270788005487</v>
+        <v>53.02270788005521</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>72.35541857982957</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>57.82268097995117</v>
+        <v>39.7231889630238</v>
       </c>
       <c r="M17" t="n">
-        <v>90.98409778470904</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="N17" t="n">
-        <v>99.27216889472351</v>
+        <v>107.0662795645424</v>
       </c>
       <c r="O17" t="n">
-        <v>74.04007630808474</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="P17" t="n">
         <v>95.8917686432826</v>
@@ -35974,7 +35974,7 @@
         <v>122.4710972563217</v>
       </c>
       <c r="N18" t="n">
-        <v>123.842487009866</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="O18" t="n">
         <v>101.6497916160462</v>
@@ -36126,19 +36126,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>123.8424870098655</v>
+        <v>39.7231889630238</v>
       </c>
       <c r="M20" t="n">
-        <v>123.8424870098655</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="N20" t="n">
-        <v>123.8424870098655</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="O20" t="n">
-        <v>74.04007630808474</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="P20" t="n">
-        <v>44.7986738528973</v>
+        <v>79.11556119795891</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>122.4710972563217</v>
       </c>
       <c r="N21" t="n">
-        <v>123.8424870098655</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="O21" t="n">
         <v>101.6497916160462</v>
@@ -36363,7 +36363,7 @@
         <v>72.35541857982957</v>
       </c>
       <c r="L23" t="n">
-        <v>148.3151047461409</v>
+        <v>148.3151047461407</v>
       </c>
       <c r="M23" t="n">
         <v>207.8576164928455</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>8.934953329105269</v>
+        <v>24.98333639398374</v>
       </c>
       <c r="L24" t="n">
         <v>176.863663878086</v>
       </c>
       <c r="M24" t="n">
-        <v>138.5194803212002</v>
+        <v>122.4710972563217</v>
       </c>
       <c r="N24" t="n">
         <v>229.9351778390135</v>
@@ -36612,7 +36612,7 @@
         <v>173.0481234363985</v>
       </c>
       <c r="P26" t="n">
-        <v>95.89176864328233</v>
+        <v>95.8917686432826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>77.69591495237572</v>
       </c>
       <c r="L27" t="n">
-        <v>99.62414162845234</v>
+        <v>176.863663878086</v>
       </c>
       <c r="M27" t="n">
+        <v>152.5588385443134</v>
+      </c>
+      <c r="N27" t="n">
         <v>229.9351778390135</v>
-      </c>
-      <c r="N27" t="n">
-        <v>146.9980409475634</v>
       </c>
       <c r="O27" t="n">
         <v>204.0539946279959</v>
       </c>
       <c r="P27" t="n">
-        <v>135.8230277264389</v>
+        <v>53.02270788005521</v>
       </c>
       <c r="Q27" t="n">
         <v>16.32010341849647</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>72.35541857982957</v>
+        <v>72.35541857982936</v>
       </c>
       <c r="L29" t="n">
         <v>148.3151047461409</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>8.934953329105269</v>
+        <v>77.69591495237572</v>
       </c>
       <c r="L30" t="n">
         <v>176.863663878086</v>
       </c>
       <c r="M30" t="n">
-        <v>138.5194803212002</v>
+        <v>229.9351778390135</v>
       </c>
       <c r="N30" t="n">
         <v>229.9351778390135</v>
       </c>
       <c r="O30" t="n">
-        <v>204.0539946279959</v>
+        <v>101.6497916160462</v>
       </c>
       <c r="P30" t="n">
-        <v>135.8230277264389</v>
+        <v>78.05057159730495</v>
       </c>
       <c r="Q30" t="n">
         <v>16.32010341849647</v>
@@ -37153,13 +37153,13 @@
         <v>8.934953329105269</v>
       </c>
       <c r="L33" t="n">
-        <v>176.863663878086</v>
+        <v>85.44796636027267</v>
       </c>
       <c r="M33" t="n">
         <v>229.9351778390135</v>
       </c>
       <c r="N33" t="n">
-        <v>154.8395837396966</v>
+        <v>229.9351778390135</v>
       </c>
       <c r="O33" t="n">
         <v>204.0539946279959</v>
@@ -37168,7 +37168,7 @@
         <v>135.8230277264389</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>16.32010341849647</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>72.35541857982957</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>123.8424870098661</v>
@@ -37317,13 +37317,13 @@
         <v>90.98409778470904</v>
       </c>
       <c r="N35" t="n">
-        <v>116.9200269893945</v>
+        <v>99.27216889472351</v>
       </c>
       <c r="O35" t="n">
-        <v>74.04007630808474</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="P35" t="n">
-        <v>12.22410451869712</v>
+        <v>52.42497049141628</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>65.43295855935794</v>
       </c>
       <c r="L38" t="n">
-        <v>80.3756888579998</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="M38" t="n">
         <v>90.98409778470904</v>
       </c>
       <c r="N38" t="n">
-        <v>99.27216889472351</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="O38" t="n">
-        <v>123.8424870098661</v>
+        <v>74.04007630808474</v>
       </c>
       <c r="P38" t="n">
-        <v>95.8917686432826</v>
+        <v>12.22410451869712</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>72.35541857982957</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>123.8424870098661</v>
       </c>
       <c r="M41" t="n">
-        <v>108.63195587938</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="N41" t="n">
-        <v>99.27216889472351</v>
+        <v>123.8424870098661</v>
       </c>
       <c r="O41" t="n">
         <v>74.04007630808474</v>
       </c>
       <c r="P41" t="n">
-        <v>12.22410451869712</v>
+        <v>44.79867385289799</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -38028,13 +38028,13 @@
         <v>123.8424870098661</v>
       </c>
       <c r="N44" t="n">
-        <v>106.6146456422856</v>
+        <v>99.27216889472351</v>
       </c>
       <c r="O44" t="n">
-        <v>123.8424870098661</v>
+        <v>74.04007630808474</v>
       </c>
       <c r="P44" t="n">
-        <v>12.22410451869712</v>
+        <v>69.36899196804062</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
